--- a/carriers_source_analyses/biogas.carrier.xlsx
+++ b/carriers_source_analyses/biogas.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="34580" yWindow="2760" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="183">
   <si>
     <t>Source</t>
   </si>
@@ -611,28 +611,38 @@
   <si>
     <t>Average of small scale and large scale production costs</t>
   </si>
+  <si>
+    <t>IPCC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -830,6 +840,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1188,608 +1204,615 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="331">
+  <cellStyleXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="320" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="320" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="331">
+  <cellStyles count="335">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2030,6 +2053,10 @@
     <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2966,6 +2993,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2973,6 +3001,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3510,7 +3539,9 @@
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3534,28 +3565,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="165"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="168"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -3785,10 +3816,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q10"/>
+  <dimension ref="B1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3807,14 +3838,14 @@
     <col min="12" max="12" width="3.25" style="67" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="67" customWidth="1"/>
     <col min="14" max="14" width="2.75" style="67" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="67" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="67" customWidth="1"/>
-    <col min="17" max="17" width="60" style="66" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="66"/>
+    <col min="15" max="16" width="8.5" style="67" customWidth="1"/>
+    <col min="17" max="17" width="2.75" style="67" customWidth="1"/>
+    <col min="18" max="18" width="60" style="66" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:18" ht="16" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -3830,9 +3861,10 @@
       <c r="N2" s="70"/>
       <c r="O2" s="70"/>
       <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
-    </row>
-    <row r="3" spans="2:17" s="24" customFormat="1">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="71"/>
+    </row>
+    <row r="3" spans="2:18" s="24" customFormat="1">
       <c r="B3" s="23"/>
       <c r="C3" s="99" t="s">
         <v>29</v>
@@ -3861,12 +3893,15 @@
       <c r="O3" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -3881,10 +3916,11 @@
       <c r="M4" s="96"/>
       <c r="N4" s="98"/>
       <c r="O4" s="96"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+      <c r="P4" s="96"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" thickBot="1">
       <c r="B5" s="72"/>
       <c r="C5" s="18" t="s">
         <v>49</v>
@@ -3902,9 +3938,10 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="2:18" ht="16" thickBot="1">
       <c r="B6" s="72"/>
       <c r="C6" s="109" t="s">
         <v>36</v>
@@ -3930,9 +3967,10 @@
       <c r="N6" s="17"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="110" t="s">
         <v>37</v>
@@ -3962,11 +4000,12 @@
       <c r="N7" s="17"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="161" t="s">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="161" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
         <v>177</v>
@@ -3996,11 +4035,12 @@
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="152" t="s">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="152" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="111" t="s">
         <v>38</v>
@@ -4026,9 +4066,10 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" ht="16" thickBot="1">
       <c r="B10" s="72"/>
       <c r="C10" s="111" t="s">
         <v>39</v>
@@ -4058,7 +4099,8 @@
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="152" t="s">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="152" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4078,9 +4120,11 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L11"/>
+  <dimension ref="B1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4210,71 +4254,59 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="51"/>
-      <c r="C8" s="122"/>
+      <c r="C8" s="122" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="60"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="E8" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>168</v>
+      </c>
       <c r="J8" s="55"/>
+      <c r="K8" s="55" t="s">
+        <v>167</v>
+      </c>
       <c r="L8" s="65"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="51"/>
-      <c r="C9" s="122" t="s">
-        <v>39</v>
-      </c>
+      <c r="C9" s="122"/>
       <c r="D9" s="60"/>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="65"/>
+    </row>
+    <row r="10" spans="2:12" ht="16">
+      <c r="B10" s="51"/>
+      <c r="C10" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55" t="s">
+      <c r="F10" s="117"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="65"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="51"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="65"/>
-    </row>
-    <row r="11" spans="2:12" ht="16">
-      <c r="B11" s="51"/>
-      <c r="C11" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="L11" s="118"/>
+      <c r="L10" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4289,10 +4321,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z533"/>
+  <dimension ref="B1:AI534"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A534" sqref="A534:XFD579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15364,20 +15396,56 @@
     <row r="528" spans="2:7" customFormat="1" ht="16">
       <c r="B528" s="102"/>
     </row>
-    <row r="529" spans="2:2" customFormat="1" ht="16">
+    <row r="529" spans="2:35" customFormat="1" ht="16">
       <c r="B529" s="102"/>
     </row>
-    <row r="530" spans="2:2" customFormat="1" ht="16">
+    <row r="530" spans="2:35" customFormat="1" ht="16">
       <c r="B530" s="102"/>
     </row>
-    <row r="531" spans="2:2" customFormat="1" ht="16">
+    <row r="531" spans="2:35" customFormat="1" ht="16">
       <c r="B531" s="102"/>
     </row>
-    <row r="532" spans="2:2" customFormat="1" ht="16">
+    <row r="532" spans="2:35" customFormat="1" ht="16">
       <c r="B532" s="102"/>
     </row>
-    <row r="533" spans="2:2" customFormat="1" ht="16">
+    <row r="533" spans="2:35" customFormat="1" ht="16">
       <c r="B533" s="102"/>
+    </row>
+    <row r="534" spans="2:35" s="162" customFormat="1" ht="16">
+      <c r="B534" s="163"/>
+      <c r="C534" s="164"/>
+      <c r="D534" s="164"/>
+      <c r="E534" s="164"/>
+      <c r="F534" s="164"/>
+      <c r="G534" s="164"/>
+      <c r="H534" s="164"/>
+      <c r="I534" s="164"/>
+      <c r="J534" s="164"/>
+      <c r="K534" s="164"/>
+      <c r="L534" s="164"/>
+      <c r="M534" s="164"/>
+      <c r="N534" s="164"/>
+      <c r="O534" s="164"/>
+      <c r="P534" s="164"/>
+      <c r="Q534" s="164"/>
+      <c r="R534" s="164"/>
+      <c r="S534" s="164"/>
+      <c r="T534" s="164"/>
+      <c r="U534" s="164"/>
+      <c r="V534" s="164"/>
+      <c r="W534" s="164"/>
+      <c r="X534" s="164"/>
+      <c r="Y534" s="164"/>
+      <c r="Z534" s="164"/>
+      <c r="AA534" s="164"/>
+      <c r="AB534" s="164"/>
+      <c r="AC534" s="164"/>
+      <c r="AD534" s="164"/>
+      <c r="AE534" s="164"/>
+      <c r="AF534" s="164"/>
+      <c r="AG534" s="164"/>
+      <c r="AH534" s="164"/>
+      <c r="AI534" s="164"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carriers_source_analyses/biogas.carrier.xlsx
+++ b/carriers_source_analyses/biogas.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34580" yWindow="2760" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="34580" yWindow="-220" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -606,13 +614,13 @@
     <t>Carrier (global properties)</t>
   </si>
   <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
-  </si>
-  <si>
     <t>Average of small scale and large scale production costs</t>
   </si>
   <si>
     <t>IPCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) </t>
   </si>
 </sst>
 </file>
@@ -630,7 +638,7 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -829,11 +837,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1774,7 +1777,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1783,7 +1786,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2151,80 +2154,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2875,7 +2813,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2988,12 +2926,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3002,6 +2941,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3334,33 +3274,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>178</v>
@@ -3369,7 +3309,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -3378,7 +3318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -3387,17 +3327,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="77" t="s">
         <v>14</v>
@@ -3405,13 +3345,13 @@
       <c r="C9" s="78"/>
       <c r="D9" s="156"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="157"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="79" t="s">
         <v>15</v>
@@ -3421,7 +3361,7 @@
       </c>
       <c r="D11" s="157"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="79"/>
       <c r="C12" s="18" t="s">
@@ -3429,7 +3369,7 @@
       </c>
       <c r="D12" s="157"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="79"/>
       <c r="C13" s="82" t="s">
@@ -3437,7 +3377,7 @@
       </c>
       <c r="D13" s="157"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="79"/>
       <c r="C14" s="80" t="s">
@@ -3445,13 +3385,13 @@
       </c>
       <c r="D14" s="157"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
       <c r="D15" s="157"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="79" t="s">
         <v>20</v>
@@ -3461,7 +3401,7 @@
       </c>
       <c r="D16" s="157"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="79"/>
       <c r="C17" s="84" t="s">
@@ -3469,7 +3409,7 @@
       </c>
       <c r="D17" s="157"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="79"/>
       <c r="C18" s="85" t="s">
@@ -3477,7 +3417,7 @@
       </c>
       <c r="D18" s="157"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="79"/>
       <c r="C19" s="86" t="s">
@@ -3485,7 +3425,7 @@
       </c>
       <c r="D19" s="157"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="87"/>
       <c r="C20" s="88" t="s">
@@ -3493,7 +3433,7 @@
       </c>
       <c r="D20" s="157"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="87"/>
       <c r="C21" s="89" t="s">
@@ -3501,7 +3441,7 @@
       </c>
       <c r="D21" s="157"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="87"/>
       <c r="C22" s="90" t="s">
@@ -3509,14 +3449,14 @@
       </c>
       <c r="D22" s="157"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="87"/>
       <c r="C23" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="157"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="158"/>
       <c r="C24" s="159"/>
       <c r="D24" s="160"/>
@@ -3524,49 +3464,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="165" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C2" s="166"/>
       <c r="D2" s="166"/>
@@ -3574,7 +3509,7 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="168"/>
       <c r="C3" s="169"/>
       <c r="D3" s="169"/>
@@ -3582,7 +3517,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="171"/>
       <c r="C4" s="172"/>
       <c r="D4" s="172"/>
@@ -3590,10 +3525,10 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -3604,7 +3539,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:11" s="42" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="92"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -3625,7 +3560,7 @@
       </c>
       <c r="J7" s="94"/>
     </row>
-    <row r="8" spans="2:11" s="42" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -3636,7 +3571,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="155" t="s">
         <v>179</v>
@@ -3649,7 +3584,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="43"/>
     </row>
-    <row r="10" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="100" t="s">
         <v>36</v>
@@ -3671,7 +3606,7 @@
       </c>
       <c r="J10" s="43"/>
     </row>
-    <row r="11" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="106" t="s">
         <v>37</v>
@@ -3691,7 +3626,7 @@
       </c>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="106" t="s">
         <v>177</v>
@@ -3711,7 +3646,7 @@
       </c>
       <c r="J12" s="43"/>
     </row>
-    <row r="13" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="34" t="s">
         <v>38</v>
@@ -3733,7 +3668,7 @@
       </c>
       <c r="J13" s="43"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
         <v>39</v>
@@ -3754,7 +3689,7 @@
       <c r="J14" s="95"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="15" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -3771,43 +3706,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3822,30 +3720,29 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="66" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="66" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="66" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="66" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="66" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="66" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="67" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="66" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="67" customWidth="1"/>
     <col min="10" max="10" width="3" style="67" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="67" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="67" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="67" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="67" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="67" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="67" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="67" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="67" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="67" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="67" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="67" customWidth="1"/>
     <col min="18" max="18" width="60" style="66" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="66"/>
+    <col min="19" max="16384" width="10.7109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -3864,7 +3761,7 @@
       <c r="Q2" s="70"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" spans="2:18" s="24" customFormat="1">
+    <row r="3" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="99" t="s">
         <v>29</v>
@@ -3894,14 +3791,14 @@
         <v>51</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q3" s="64"/>
       <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -3920,7 +3817,7 @@
       <c r="Q4" s="98"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="72"/>
       <c r="C5" s="18" t="s">
         <v>49</v>
@@ -3941,7 +3838,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
       <c r="C6" s="109" t="s">
         <v>36</v>
@@ -3970,7 +3867,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="110" t="s">
         <v>37</v>
@@ -4002,10 +3899,10 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
         <v>177</v>
@@ -4040,7 +3937,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="111" t="s">
         <v>38</v>
@@ -4069,7 +3966,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18" ht="16" thickBot="1">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
       <c r="C10" s="111" t="s">
         <v>39</v>
@@ -4107,11 +4004,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4126,23 +4018,23 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
     <col min="6" max="6" width="5" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="46" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="46" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="46"/>
+    <col min="7" max="7" width="10.28515625" style="46" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="46" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4155,7 +4047,7 @@
       <c r="K2" s="50"/>
       <c r="L2" s="49"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>10</v>
@@ -4170,7 +4062,7 @@
       <c r="K3" s="53"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4183,7 +4075,7 @@
       <c r="K4" s="55"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>12</v>
@@ -4212,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4225,7 +4117,7 @@
       <c r="K6" s="53"/>
       <c r="L6" s="52"/>
     </row>
-    <row r="7" spans="2:12" ht="16">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="122" t="s">
         <v>177</v>
@@ -4252,7 +4144,7 @@
       </c>
       <c r="L7" s="118"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="122" t="s">
         <v>39</v>
@@ -4276,7 +4168,7 @@
       </c>
       <c r="L8" s="65"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="122"/>
       <c r="D9" s="60"/>
@@ -4289,7 +4181,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="65"/>
     </row>
-    <row r="10" spans="2:12" ht="16">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="122" t="s">
         <v>37</v>
@@ -4311,11 +4203,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4323,23 +4210,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A523" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="A534" sqref="A534:XFD579"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="101" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="101" customWidth="1"/>
     <col min="2" max="2" width="5" style="101" customWidth="1"/>
     <col min="3" max="5" width="7" style="101"/>
-    <col min="6" max="6" width="10.875" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="101" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="101"/>
-    <col min="8" max="8" width="8.875" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="101" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="16" thickBot="1"/>
-    <row r="2" spans="2:26" s="24" customFormat="1">
+    <row r="1" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="104"/>
       <c r="C2" s="105" t="s">
         <v>24</v>
@@ -4367,7 +4254,7 @@
       <c r="T2" s="105"/>
       <c r="U2" s="105"/>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="102"/>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
@@ -4389,7 +4276,7 @@
       <c r="T3" s="103"/>
       <c r="U3" s="103"/>
     </row>
-    <row r="4" spans="2:26" customFormat="1" ht="16">
+    <row r="4" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="102"/>
       <c r="C4" s="112"/>
       <c r="D4" s="112"/>
@@ -4414,7 +4301,7 @@
       <c r="W4" s="112"/>
       <c r="X4" s="112"/>
     </row>
-    <row r="5" spans="2:26" customFormat="1" ht="16">
+    <row r="5" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="102"/>
       <c r="C5" s="112" t="s">
         <v>70</v>
@@ -4443,7 +4330,7 @@
       <c r="Y5" s="112"/>
       <c r="Z5" s="112"/>
     </row>
-    <row r="6" spans="2:26" customFormat="1" ht="16">
+    <row r="6" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="102"/>
       <c r="C6" s="112"/>
       <c r="D6" s="112"/>
@@ -4470,7 +4357,7 @@
       <c r="Y6" s="112"/>
       <c r="Z6" s="112"/>
     </row>
-    <row r="7" spans="2:26" customFormat="1" ht="16">
+    <row r="7" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="102"/>
       <c r="C7" s="112"/>
       <c r="D7" s="112" t="s">
@@ -4501,7 +4388,7 @@
       <c r="Y7" s="112"/>
       <c r="Z7" s="112"/>
     </row>
-    <row r="8" spans="2:26" customFormat="1" ht="16">
+    <row r="8" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="102"/>
       <c r="C8" s="112"/>
       <c r="D8" s="112"/>
@@ -4530,7 +4417,7 @@
       <c r="Y8" s="112"/>
       <c r="Z8" s="112"/>
     </row>
-    <row r="9" spans="2:26" customFormat="1" ht="16">
+    <row r="9" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="102"/>
       <c r="C9" s="112"/>
       <c r="D9" s="112"/>
@@ -4557,7 +4444,7 @@
       <c r="Y9" s="112"/>
       <c r="Z9" s="112"/>
     </row>
-    <row r="10" spans="2:26" customFormat="1" ht="16">
+    <row r="10" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -4584,7 +4471,7 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="112"/>
     </row>
-    <row r="11" spans="2:26" customFormat="1" ht="16">
+    <row r="11" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="102"/>
       <c r="C11" s="112"/>
       <c r="D11" s="112"/>
@@ -4611,7 +4498,7 @@
       <c r="Y11" s="112"/>
       <c r="Z11" s="112"/>
     </row>
-    <row r="12" spans="2:26" customFormat="1" ht="16">
+    <row r="12" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="102"/>
       <c r="C12" s="112"/>
       <c r="D12" s="112"/>
@@ -4638,7 +4525,7 @@
       <c r="Y12" s="112"/>
       <c r="Z12" s="112"/>
     </row>
-    <row r="13" spans="2:26" customFormat="1" ht="16">
+    <row r="13" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="102"/>
       <c r="C13" s="112"/>
       <c r="D13" s="112"/>
@@ -4665,7 +4552,7 @@
       <c r="Y13" s="112"/>
       <c r="Z13" s="112"/>
     </row>
-    <row r="14" spans="2:26" customFormat="1" ht="16">
+    <row r="14" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="102"/>
       <c r="C14" s="112"/>
       <c r="D14" s="112"/>
@@ -4692,7 +4579,7 @@
       <c r="Y14" s="112"/>
       <c r="Z14" s="112"/>
     </row>
-    <row r="15" spans="2:26" customFormat="1" ht="16">
+    <row r="15" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="102"/>
       <c r="C15" s="112"/>
       <c r="D15" s="112"/>
@@ -4719,7 +4606,7 @@
       <c r="Y15" s="112"/>
       <c r="Z15" s="112"/>
     </row>
-    <row r="16" spans="2:26" customFormat="1" ht="16">
+    <row r="16" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="102"/>
       <c r="C16" s="112"/>
       <c r="D16" s="112"/>
@@ -4746,7 +4633,7 @@
       <c r="Y16" s="112"/>
       <c r="Z16" s="112"/>
     </row>
-    <row r="17" spans="2:26" customFormat="1" ht="16">
+    <row r="17" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="102"/>
       <c r="C17" s="112"/>
       <c r="D17" s="112"/>
@@ -4773,7 +4660,7 @@
       <c r="Y17" s="112"/>
       <c r="Z17" s="112"/>
     </row>
-    <row r="18" spans="2:26" customFormat="1" ht="16">
+    <row r="18" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="102"/>
       <c r="C18" s="112"/>
       <c r="D18" s="112"/>
@@ -4800,7 +4687,7 @@
       <c r="Y18" s="112"/>
       <c r="Z18" s="112"/>
     </row>
-    <row r="19" spans="2:26" customFormat="1" ht="16">
+    <row r="19" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="102"/>
       <c r="C19" s="112"/>
       <c r="D19" s="112"/>
@@ -4827,7 +4714,7 @@
       <c r="Y19" s="112"/>
       <c r="Z19" s="112"/>
     </row>
-    <row r="20" spans="2:26" customFormat="1" ht="16">
+    <row r="20" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="102"/>
       <c r="C20" s="112"/>
       <c r="D20" s="112"/>
@@ -4854,7 +4741,7 @@
       <c r="Y20" s="112"/>
       <c r="Z20" s="112"/>
     </row>
-    <row r="21" spans="2:26" customFormat="1" ht="16">
+    <row r="21" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="102"/>
       <c r="C21" s="112"/>
       <c r="D21" s="112"/>
@@ -4881,7 +4768,7 @@
       <c r="Y21" s="112"/>
       <c r="Z21" s="112"/>
     </row>
-    <row r="22" spans="2:26" customFormat="1" ht="16">
+    <row r="22" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="102"/>
       <c r="C22" s="112"/>
       <c r="D22" s="112" t="s">
@@ -4910,7 +4797,7 @@
       <c r="Y22" s="112"/>
       <c r="Z22" s="112"/>
     </row>
-    <row r="23" spans="2:26" customFormat="1" ht="16">
+    <row r="23" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="102"/>
       <c r="C23" s="112"/>
       <c r="D23" s="112"/>
@@ -4941,7 +4828,7 @@
       <c r="Y23" s="112"/>
       <c r="Z23" s="112"/>
     </row>
-    <row r="24" spans="2:26" customFormat="1" ht="16">
+    <row r="24" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="102"/>
       <c r="C24" s="112"/>
       <c r="D24" s="112"/>
@@ -4972,7 +4859,7 @@
       <c r="Y24" s="112"/>
       <c r="Z24" s="112"/>
     </row>
-    <row r="25" spans="2:26" customFormat="1" ht="16">
+    <row r="25" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="102"/>
       <c r="C25" s="112"/>
       <c r="D25" s="112"/>
@@ -5005,7 +4892,7 @@
       <c r="Y25" s="112"/>
       <c r="Z25" s="112"/>
     </row>
-    <row r="26" spans="2:26" customFormat="1" ht="16">
+    <row r="26" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="102"/>
       <c r="C26" s="112"/>
       <c r="D26" s="112"/>
@@ -5038,7 +4925,7 @@
       <c r="Y26" s="112"/>
       <c r="Z26" s="112"/>
     </row>
-    <row r="27" spans="2:26" customFormat="1" ht="16">
+    <row r="27" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="102"/>
       <c r="C27" s="112"/>
       <c r="D27" s="112"/>
@@ -5072,7 +4959,7 @@
       <c r="Y27" s="112"/>
       <c r="Z27" s="112"/>
     </row>
-    <row r="28" spans="2:26" customFormat="1" ht="16">
+    <row r="28" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="102"/>
       <c r="C28" s="112"/>
       <c r="D28" s="112"/>
@@ -5106,7 +4993,7 @@
       <c r="Y28" s="112"/>
       <c r="Z28" s="112"/>
     </row>
-    <row r="29" spans="2:26" customFormat="1" ht="16">
+    <row r="29" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="102"/>
       <c r="C29" s="112"/>
       <c r="D29" s="112"/>
@@ -5139,7 +5026,7 @@
       <c r="Y29" s="112"/>
       <c r="Z29" s="112"/>
     </row>
-    <row r="30" spans="2:26" customFormat="1" ht="16">
+    <row r="30" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="102"/>
       <c r="C30" s="112"/>
       <c r="D30" s="112"/>
@@ -5170,7 +5057,7 @@
       <c r="Y30" s="112"/>
       <c r="Z30" s="112"/>
     </row>
-    <row r="31" spans="2:26" customFormat="1" ht="16">
+    <row r="31" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="102"/>
       <c r="C31" s="112"/>
       <c r="D31" s="112"/>
@@ -5204,7 +5091,7 @@
       <c r="Y31" s="112"/>
       <c r="Z31" s="112"/>
     </row>
-    <row r="32" spans="2:26" customFormat="1" ht="16">
+    <row r="32" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="102"/>
       <c r="C32" s="112"/>
       <c r="D32" s="112"/>
@@ -5237,7 +5124,7 @@
       <c r="Y32" s="112"/>
       <c r="Z32" s="112"/>
     </row>
-    <row r="33" spans="2:26" customFormat="1" ht="16">
+    <row r="33" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="102"/>
       <c r="C33" s="112"/>
       <c r="D33" s="112"/>
@@ -5271,7 +5158,7 @@
       <c r="Y33" s="112"/>
       <c r="Z33" s="112"/>
     </row>
-    <row r="34" spans="2:26" customFormat="1" ht="16">
+    <row r="34" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="102"/>
       <c r="C34" s="112"/>
       <c r="D34" s="112"/>
@@ -5304,7 +5191,7 @@
       <c r="Y34" s="112"/>
       <c r="Z34" s="112"/>
     </row>
-    <row r="35" spans="2:26" customFormat="1" ht="16">
+    <row r="35" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="102"/>
       <c r="C35" s="112"/>
       <c r="D35" s="112"/>
@@ -5338,7 +5225,7 @@
       <c r="Y35" s="112"/>
       <c r="Z35" s="112"/>
     </row>
-    <row r="36" spans="2:26" customFormat="1" ht="16">
+    <row r="36" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="102"/>
       <c r="C36" s="112"/>
       <c r="D36" s="112"/>
@@ -5372,7 +5259,7 @@
       <c r="Y36" s="112"/>
       <c r="Z36" s="112"/>
     </row>
-    <row r="37" spans="2:26" customFormat="1" ht="16">
+    <row r="37" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="102"/>
       <c r="C37" s="112"/>
       <c r="D37" s="112"/>
@@ -5406,7 +5293,7 @@
       <c r="Y37" s="112"/>
       <c r="Z37" s="112"/>
     </row>
-    <row r="38" spans="2:26" customFormat="1" ht="16">
+    <row r="38" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="102"/>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
@@ -5440,7 +5327,7 @@
       <c r="Y38" s="112"/>
       <c r="Z38" s="112"/>
     </row>
-    <row r="39" spans="2:26" customFormat="1" ht="16">
+    <row r="39" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="102"/>
       <c r="C39" s="112"/>
       <c r="D39" s="112"/>
@@ -5474,7 +5361,7 @@
       <c r="Y39" s="112"/>
       <c r="Z39" s="112"/>
     </row>
-    <row r="40" spans="2:26" customFormat="1" ht="16">
+    <row r="40" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="102"/>
       <c r="C40" s="112"/>
       <c r="D40" s="112"/>
@@ -5501,7 +5388,7 @@
       <c r="Y40" s="112"/>
       <c r="Z40" s="112"/>
     </row>
-    <row r="41" spans="2:26" customFormat="1" ht="16">
+    <row r="41" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="102"/>
       <c r="C41" s="112"/>
       <c r="D41" s="112"/>
@@ -5528,7 +5415,7 @@
       <c r="Y41" s="112"/>
       <c r="Z41" s="112"/>
     </row>
-    <row r="42" spans="2:26" customFormat="1" ht="16">
+    <row r="42" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="102"/>
       <c r="C42" s="112"/>
       <c r="D42" s="112"/>
@@ -5555,7 +5442,7 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
     </row>
-    <row r="43" spans="2:26" customFormat="1" ht="16">
+    <row r="43" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="102"/>
       <c r="C43" s="112"/>
       <c r="D43" s="112"/>
@@ -5582,7 +5469,7 @@
       <c r="Y43" s="112"/>
       <c r="Z43" s="112"/>
     </row>
-    <row r="44" spans="2:26" customFormat="1" ht="16">
+    <row r="44" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="102"/>
       <c r="C44" s="112"/>
       <c r="D44" s="112"/>
@@ -5609,7 +5496,7 @@
       <c r="Y44" s="112"/>
       <c r="Z44" s="112"/>
     </row>
-    <row r="45" spans="2:26" customFormat="1" ht="16">
+    <row r="45" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="102"/>
       <c r="C45" s="112"/>
       <c r="D45" s="112"/>
@@ -5638,7 +5525,7 @@
       <c r="Y45" s="112"/>
       <c r="Z45" s="112"/>
     </row>
-    <row r="46" spans="2:26" customFormat="1" ht="16">
+    <row r="46" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="102"/>
       <c r="C46" s="112"/>
       <c r="D46" s="112"/>
@@ -5667,7 +5554,7 @@
       <c r="Y46" s="112"/>
       <c r="Z46" s="112"/>
     </row>
-    <row r="47" spans="2:26" customFormat="1" ht="16">
+    <row r="47" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="102"/>
       <c r="C47" s="112"/>
       <c r="D47" s="112"/>
@@ -5697,7 +5584,7 @@
       <c r="Y47" s="112"/>
       <c r="Z47" s="112"/>
     </row>
-    <row r="48" spans="2:26" customFormat="1" ht="16">
+    <row r="48" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="102"/>
       <c r="C48" s="112"/>
       <c r="D48" s="112"/>
@@ -5724,7 +5611,7 @@
       <c r="Y48" s="112"/>
       <c r="Z48" s="112"/>
     </row>
-    <row r="49" spans="2:26" customFormat="1" ht="16">
+    <row r="49" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="102"/>
       <c r="C49" s="112"/>
       <c r="D49" s="112"/>
@@ -5751,7 +5638,7 @@
       <c r="Y49" s="112"/>
       <c r="Z49" s="112"/>
     </row>
-    <row r="50" spans="2:26" customFormat="1" ht="16">
+    <row r="50" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="102"/>
       <c r="C50" s="112"/>
       <c r="D50" s="112"/>
@@ -5778,7 +5665,7 @@
       <c r="Y50" s="112"/>
       <c r="Z50" s="112"/>
     </row>
-    <row r="51" spans="2:26" customFormat="1" ht="16">
+    <row r="51" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="102"/>
       <c r="C51" s="112"/>
       <c r="D51" s="112"/>
@@ -5805,7 +5692,7 @@
       <c r="Y51" s="112"/>
       <c r="Z51" s="112"/>
     </row>
-    <row r="52" spans="2:26" customFormat="1" ht="16">
+    <row r="52" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="102"/>
       <c r="C52" s="112"/>
       <c r="D52" s="112"/>
@@ -5832,7 +5719,7 @@
       <c r="Y52" s="112"/>
       <c r="Z52" s="112"/>
     </row>
-    <row r="53" spans="2:26" customFormat="1" ht="16">
+    <row r="53" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="102"/>
       <c r="C53" s="112"/>
       <c r="D53" s="112"/>
@@ -5859,7 +5746,7 @@
       <c r="Y53" s="112"/>
       <c r="Z53" s="112"/>
     </row>
-    <row r="54" spans="2:26" customFormat="1" ht="16">
+    <row r="54" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="102"/>
       <c r="C54" s="112"/>
       <c r="D54" s="112"/>
@@ -5886,7 +5773,7 @@
       <c r="Y54" s="112"/>
       <c r="Z54" s="112"/>
     </row>
-    <row r="55" spans="2:26" customFormat="1" ht="16">
+    <row r="55" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="102"/>
       <c r="C55" s="112"/>
       <c r="D55" s="112"/>
@@ -5913,7 +5800,7 @@
       <c r="Y55" s="112"/>
       <c r="Z55" s="112"/>
     </row>
-    <row r="56" spans="2:26" customFormat="1" ht="16">
+    <row r="56" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="102"/>
       <c r="C56" s="112"/>
       <c r="D56" s="112"/>
@@ -5940,7 +5827,7 @@
       <c r="Y56" s="112"/>
       <c r="Z56" s="112"/>
     </row>
-    <row r="57" spans="2:26" customFormat="1" ht="16">
+    <row r="57" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="102"/>
       <c r="C57" s="112"/>
       <c r="D57" s="112"/>
@@ -5967,7 +5854,7 @@
       <c r="Y57" s="112"/>
       <c r="Z57" s="112"/>
     </row>
-    <row r="58" spans="2:26" customFormat="1" ht="16">
+    <row r="58" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="102"/>
       <c r="C58" s="112"/>
       <c r="D58" s="112"/>
@@ -5994,7 +5881,7 @@
       <c r="Y58" s="112"/>
       <c r="Z58" s="112"/>
     </row>
-    <row r="59" spans="2:26" customFormat="1" ht="16">
+    <row r="59" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="102"/>
       <c r="C59" s="112"/>
       <c r="D59" s="112"/>
@@ -6021,7 +5908,7 @@
       <c r="Y59" s="112"/>
       <c r="Z59" s="112"/>
     </row>
-    <row r="60" spans="2:26" customFormat="1" ht="16">
+    <row r="60" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="102"/>
       <c r="C60" s="112"/>
       <c r="D60" s="112"/>
@@ -6048,7 +5935,7 @@
       <c r="Y60" s="112"/>
       <c r="Z60" s="112"/>
     </row>
-    <row r="61" spans="2:26" customFormat="1" ht="16">
+    <row r="61" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="102"/>
       <c r="C61" s="112"/>
       <c r="D61" s="112"/>
@@ -6075,7 +5962,7 @@
       <c r="Y61" s="112"/>
       <c r="Z61" s="112"/>
     </row>
-    <row r="62" spans="2:26" customFormat="1" ht="16">
+    <row r="62" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="102"/>
       <c r="C62" s="112"/>
       <c r="D62" s="112"/>
@@ -6102,7 +5989,7 @@
       <c r="Y62" s="112"/>
       <c r="Z62" s="112"/>
     </row>
-    <row r="63" spans="2:26" customFormat="1" ht="16">
+    <row r="63" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="102"/>
       <c r="C63" s="112"/>
       <c r="D63" s="112"/>
@@ -6129,7 +6016,7 @@
       <c r="Y63" s="112"/>
       <c r="Z63" s="112"/>
     </row>
-    <row r="64" spans="2:26" customFormat="1" ht="16">
+    <row r="64" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="102"/>
       <c r="C64" s="112"/>
       <c r="D64" s="112"/>
@@ -6156,7 +6043,7 @@
       <c r="Y64" s="112"/>
       <c r="Z64" s="112"/>
     </row>
-    <row r="65" spans="2:26" customFormat="1" ht="16">
+    <row r="65" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="102"/>
       <c r="C65" s="112"/>
       <c r="D65" s="112"/>
@@ -6183,7 +6070,7 @@
       <c r="Y65" s="112"/>
       <c r="Z65" s="112"/>
     </row>
-    <row r="66" spans="2:26" customFormat="1" ht="16">
+    <row r="66" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="102"/>
       <c r="C66" s="112"/>
       <c r="D66" s="112"/>
@@ -6210,7 +6097,7 @@
       <c r="Y66" s="112"/>
       <c r="Z66" s="112"/>
     </row>
-    <row r="67" spans="2:26" customFormat="1" ht="16">
+    <row r="67" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="102"/>
       <c r="C67" s="112"/>
       <c r="D67" s="112" t="s">
@@ -6239,7 +6126,7 @@
       <c r="Y67" s="112"/>
       <c r="Z67" s="112"/>
     </row>
-    <row r="68" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="68" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="102"/>
       <c r="C68" s="128"/>
       <c r="D68" s="128"/>
@@ -6271,7 +6158,7 @@
       <c r="Y68" s="128"/>
       <c r="Z68" s="128"/>
     </row>
-    <row r="69" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="69" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="102"/>
       <c r="C69" s="128"/>
       <c r="D69" s="128"/>
@@ -6303,7 +6190,7 @@
       <c r="Y69" s="128"/>
       <c r="Z69" s="128"/>
     </row>
-    <row r="70" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="70" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="102"/>
       <c r="C70" s="128"/>
       <c r="D70" s="128"/>
@@ -6335,7 +6222,7 @@
       <c r="Y70" s="128"/>
       <c r="Z70" s="128"/>
     </row>
-    <row r="71" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="71" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="102"/>
       <c r="C71" s="128"/>
       <c r="D71" s="128"/>
@@ -6369,7 +6256,7 @@
       <c r="Y71" s="128"/>
       <c r="Z71" s="128"/>
     </row>
-    <row r="72" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="72" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="102"/>
       <c r="C72" s="128"/>
       <c r="D72" s="128"/>
@@ -6395,7 +6282,7 @@
       <c r="Y72" s="128"/>
       <c r="Z72" s="128"/>
     </row>
-    <row r="73" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="73" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="102"/>
       <c r="C73" s="128"/>
       <c r="D73" s="128"/>
@@ -6427,7 +6314,7 @@
       <c r="Y73" s="128"/>
       <c r="Z73" s="128"/>
     </row>
-    <row r="74" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="74" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="102"/>
       <c r="C74" s="128"/>
       <c r="D74" s="128"/>
@@ -6459,7 +6346,7 @@
       <c r="Y74" s="128"/>
       <c r="Z74" s="128"/>
     </row>
-    <row r="75" spans="2:26" customFormat="1" ht="16">
+    <row r="75" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="102"/>
       <c r="C75" s="112"/>
       <c r="D75" s="112"/>
@@ -6485,7 +6372,7 @@
       <c r="Y75" s="112"/>
       <c r="Z75" s="112"/>
     </row>
-    <row r="76" spans="2:26" customFormat="1" ht="16">
+    <row r="76" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="102"/>
       <c r="C76" s="112"/>
       <c r="D76" s="112"/>
@@ -6519,7 +6406,7 @@
       <c r="Y76" s="112"/>
       <c r="Z76" s="112"/>
     </row>
-    <row r="77" spans="2:26" customFormat="1" ht="16">
+    <row r="77" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="102"/>
       <c r="C77" s="112"/>
       <c r="D77" s="112"/>
@@ -6553,7 +6440,7 @@
       <c r="Y77" s="112"/>
       <c r="Z77" s="112"/>
     </row>
-    <row r="78" spans="2:26" customFormat="1" ht="16">
+    <row r="78" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="102"/>
       <c r="C78" s="112"/>
       <c r="D78" s="112"/>
@@ -6580,7 +6467,7 @@
       <c r="Y78" s="112"/>
       <c r="Z78" s="112"/>
     </row>
-    <row r="79" spans="2:26" customFormat="1" ht="16">
+    <row r="79" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="102"/>
       <c r="C79" s="112"/>
       <c r="D79" s="112"/>
@@ -6607,7 +6494,7 @@
       <c r="Y79" s="112"/>
       <c r="Z79" s="112"/>
     </row>
-    <row r="80" spans="2:26" customFormat="1" ht="16">
+    <row r="80" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="102"/>
       <c r="C80" s="112"/>
       <c r="D80" s="112"/>
@@ -6634,7 +6521,7 @@
       <c r="Y80" s="112"/>
       <c r="Z80" s="112"/>
     </row>
-    <row r="81" spans="2:26" customFormat="1" ht="16">
+    <row r="81" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="102"/>
       <c r="C81" s="112"/>
       <c r="D81" s="112"/>
@@ -6661,7 +6548,7 @@
       <c r="Y81" s="112"/>
       <c r="Z81" s="112"/>
     </row>
-    <row r="82" spans="2:26" customFormat="1" ht="16">
+    <row r="82" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="102"/>
       <c r="C82" s="112"/>
       <c r="D82" s="112"/>
@@ -6688,7 +6575,7 @@
       <c r="Y82" s="112"/>
       <c r="Z82" s="112"/>
     </row>
-    <row r="83" spans="2:26" customFormat="1" ht="16">
+    <row r="83" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="102"/>
       <c r="C83" s="112"/>
       <c r="D83" s="112"/>
@@ -6715,7 +6602,7 @@
       <c r="Y83" s="112"/>
       <c r="Z83" s="112"/>
     </row>
-    <row r="84" spans="2:26" customFormat="1" ht="16">
+    <row r="84" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="102"/>
       <c r="C84" s="112"/>
       <c r="D84" s="112"/>
@@ -6742,7 +6629,7 @@
       <c r="Y84" s="112"/>
       <c r="Z84" s="112"/>
     </row>
-    <row r="85" spans="2:26" customFormat="1" ht="16">
+    <row r="85" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="102"/>
       <c r="C85" s="112"/>
       <c r="D85" s="112"/>
@@ -6769,7 +6656,7 @@
       <c r="Y85" s="112"/>
       <c r="Z85" s="112"/>
     </row>
-    <row r="86" spans="2:26" customFormat="1" ht="16">
+    <row r="86" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="102"/>
       <c r="C86" s="112"/>
       <c r="D86" s="112"/>
@@ -6796,7 +6683,7 @@
       <c r="Y86" s="112"/>
       <c r="Z86" s="112"/>
     </row>
-    <row r="87" spans="2:26" customFormat="1" ht="16">
+    <row r="87" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="102"/>
       <c r="C87" s="112"/>
       <c r="D87" s="112"/>
@@ -6823,7 +6710,7 @@
       <c r="Y87" s="112"/>
       <c r="Z87" s="112"/>
     </row>
-    <row r="88" spans="2:26" customFormat="1" ht="16">
+    <row r="88" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="102"/>
       <c r="C88" s="112"/>
       <c r="D88" s="112"/>
@@ -6850,7 +6737,7 @@
       <c r="Y88" s="112"/>
       <c r="Z88" s="112"/>
     </row>
-    <row r="89" spans="2:26" customFormat="1" ht="16">
+    <row r="89" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="102"/>
       <c r="C89" s="112"/>
       <c r="D89" s="112"/>
@@ -6877,7 +6764,7 @@
       <c r="Y89" s="112"/>
       <c r="Z89" s="112"/>
     </row>
-    <row r="90" spans="2:26" customFormat="1" ht="16">
+    <row r="90" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="102"/>
       <c r="C90" s="112"/>
       <c r="D90" s="112"/>
@@ -6904,7 +6791,7 @@
       <c r="Y90" s="112"/>
       <c r="Z90" s="112"/>
     </row>
-    <row r="91" spans="2:26" customFormat="1" ht="16">
+    <row r="91" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="102"/>
       <c r="C91" s="112"/>
       <c r="D91" s="112"/>
@@ -6931,7 +6818,7 @@
       <c r="Y91" s="112"/>
       <c r="Z91" s="112"/>
     </row>
-    <row r="92" spans="2:26" customFormat="1" ht="16">
+    <row r="92" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="102"/>
       <c r="C92" s="112"/>
       <c r="D92" s="112"/>
@@ -6958,7 +6845,7 @@
       <c r="Y92" s="112"/>
       <c r="Z92" s="112"/>
     </row>
-    <row r="93" spans="2:26" customFormat="1" ht="16">
+    <row r="93" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="102"/>
       <c r="C93" s="112"/>
       <c r="D93" s="112"/>
@@ -6985,7 +6872,7 @@
       <c r="Y93" s="112"/>
       <c r="Z93" s="112"/>
     </row>
-    <row r="94" spans="2:26" customFormat="1" ht="16">
+    <row r="94" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="102"/>
       <c r="C94" s="112"/>
       <c r="D94" s="112"/>
@@ -7012,7 +6899,7 @@
       <c r="Y94" s="112"/>
       <c r="Z94" s="112"/>
     </row>
-    <row r="95" spans="2:26" customFormat="1" ht="16">
+    <row r="95" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="102"/>
       <c r="C95" s="112"/>
       <c r="D95" s="112"/>
@@ -7039,7 +6926,7 @@
       <c r="Y95" s="112"/>
       <c r="Z95" s="112"/>
     </row>
-    <row r="96" spans="2:26" customFormat="1" ht="16">
+    <row r="96" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="102"/>
       <c r="C96" s="112"/>
       <c r="D96" s="112"/>
@@ -7066,7 +6953,7 @@
       <c r="Y96" s="112"/>
       <c r="Z96" s="112"/>
     </row>
-    <row r="97" spans="2:26" customFormat="1" ht="16">
+    <row r="97" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="102"/>
       <c r="C97" s="112"/>
       <c r="D97" s="112"/>
@@ -7093,7 +6980,7 @@
       <c r="Y97" s="112"/>
       <c r="Z97" s="112"/>
     </row>
-    <row r="98" spans="2:26" customFormat="1" ht="16">
+    <row r="98" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="102"/>
       <c r="C98" s="112"/>
       <c r="D98" s="112"/>
@@ -7120,7 +7007,7 @@
       <c r="Y98" s="112"/>
       <c r="Z98" s="112"/>
     </row>
-    <row r="99" spans="2:26" customFormat="1" ht="16">
+    <row r="99" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="102"/>
       <c r="C99" s="112"/>
       <c r="D99" s="112"/>
@@ -7147,7 +7034,7 @@
       <c r="Y99" s="112"/>
       <c r="Z99" s="112"/>
     </row>
-    <row r="100" spans="2:26" customFormat="1" ht="16">
+    <row r="100" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="102"/>
       <c r="C100" s="112"/>
       <c r="D100" s="112"/>
@@ -7174,7 +7061,7 @@
       <c r="Y100" s="112"/>
       <c r="Z100" s="112"/>
     </row>
-    <row r="101" spans="2:26" customFormat="1" ht="16">
+    <row r="101" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="102"/>
       <c r="C101" s="112"/>
       <c r="D101" s="112"/>
@@ -7201,7 +7088,7 @@
       <c r="Y101" s="112"/>
       <c r="Z101" s="112"/>
     </row>
-    <row r="102" spans="2:26" customFormat="1" ht="16">
+    <row r="102" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="102"/>
       <c r="C102" s="112"/>
       <c r="D102" s="112"/>
@@ -7228,7 +7115,7 @@
       <c r="Y102" s="112"/>
       <c r="Z102" s="112"/>
     </row>
-    <row r="103" spans="2:26" customFormat="1" ht="16">
+    <row r="103" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="102"/>
       <c r="C103" s="112"/>
       <c r="D103" s="112"/>
@@ -7255,7 +7142,7 @@
       <c r="Y103" s="112"/>
       <c r="Z103" s="112"/>
     </row>
-    <row r="104" spans="2:26" customFormat="1" ht="16">
+    <row r="104" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="102"/>
       <c r="C104" s="112"/>
       <c r="D104" s="112"/>
@@ -7282,7 +7169,7 @@
       <c r="Y104" s="112"/>
       <c r="Z104" s="112"/>
     </row>
-    <row r="105" spans="2:26" customFormat="1" ht="16">
+    <row r="105" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="102"/>
       <c r="C105" s="112"/>
       <c r="D105" s="112"/>
@@ -7309,7 +7196,7 @@
       <c r="Y105" s="112"/>
       <c r="Z105" s="112"/>
     </row>
-    <row r="106" spans="2:26" customFormat="1" ht="16">
+    <row r="106" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="102"/>
       <c r="C106" s="112"/>
       <c r="D106" s="112"/>
@@ -7336,7 +7223,7 @@
       <c r="Y106" s="112"/>
       <c r="Z106" s="112"/>
     </row>
-    <row r="107" spans="2:26" customFormat="1" ht="16">
+    <row r="107" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="102"/>
       <c r="C107" s="112"/>
       <c r="D107" s="112"/>
@@ -7363,7 +7250,7 @@
       <c r="Y107" s="112"/>
       <c r="Z107" s="112"/>
     </row>
-    <row r="108" spans="2:26" customFormat="1" ht="16">
+    <row r="108" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="102"/>
       <c r="C108" s="112"/>
       <c r="D108" s="112"/>
@@ -7390,7 +7277,7 @@
       <c r="Y108" s="112"/>
       <c r="Z108" s="112"/>
     </row>
-    <row r="109" spans="2:26" customFormat="1" ht="16">
+    <row r="109" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="102"/>
       <c r="C109" s="112"/>
       <c r="D109" s="112"/>
@@ -7417,7 +7304,7 @@
       <c r="Y109" s="112"/>
       <c r="Z109" s="112"/>
     </row>
-    <row r="110" spans="2:26" customFormat="1" ht="16">
+    <row r="110" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="102"/>
       <c r="C110" s="112"/>
       <c r="D110" s="112"/>
@@ -7444,7 +7331,7 @@
       <c r="Y110" s="112"/>
       <c r="Z110" s="112"/>
     </row>
-    <row r="111" spans="2:26" customFormat="1" ht="16">
+    <row r="111" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="102"/>
       <c r="C111" s="112"/>
       <c r="D111" s="112"/>
@@ -7471,7 +7358,7 @@
       <c r="Y111" s="112"/>
       <c r="Z111" s="112"/>
     </row>
-    <row r="112" spans="2:26" customFormat="1" ht="16">
+    <row r="112" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="102"/>
       <c r="C112" s="112"/>
       <c r="D112" s="112"/>
@@ -7498,7 +7385,7 @@
       <c r="Y112" s="112"/>
       <c r="Z112" s="112"/>
     </row>
-    <row r="113" spans="2:26" customFormat="1" ht="16">
+    <row r="113" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="102"/>
       <c r="C113" s="112"/>
       <c r="D113" s="112"/>
@@ -7525,7 +7412,7 @@
       <c r="Y113" s="112"/>
       <c r="Z113" s="112"/>
     </row>
-    <row r="114" spans="2:26" customFormat="1" ht="16">
+    <row r="114" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="102"/>
       <c r="C114" s="112"/>
       <c r="D114" s="112"/>
@@ -7552,7 +7439,7 @@
       <c r="Y114" s="112"/>
       <c r="Z114" s="112"/>
     </row>
-    <row r="115" spans="2:26" customFormat="1" ht="16">
+    <row r="115" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="102"/>
       <c r="C115" s="112"/>
       <c r="D115" s="112"/>
@@ -7579,7 +7466,7 @@
       <c r="Y115" s="112"/>
       <c r="Z115" s="112"/>
     </row>
-    <row r="116" spans="2:26" customFormat="1" ht="16">
+    <row r="116" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="102"/>
       <c r="C116" s="112"/>
       <c r="D116" s="112"/>
@@ -7606,7 +7493,7 @@
       <c r="Y116" s="112"/>
       <c r="Z116" s="112"/>
     </row>
-    <row r="117" spans="2:26" customFormat="1" ht="16">
+    <row r="117" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="102"/>
       <c r="C117" s="112"/>
       <c r="D117" s="112"/>
@@ -7633,7 +7520,7 @@
       <c r="Y117" s="112"/>
       <c r="Z117" s="112"/>
     </row>
-    <row r="118" spans="2:26" customFormat="1" ht="16">
+    <row r="118" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="102"/>
       <c r="C118" s="112"/>
       <c r="D118" s="112"/>
@@ -7660,7 +7547,7 @@
       <c r="Y118" s="112"/>
       <c r="Z118" s="112"/>
     </row>
-    <row r="119" spans="2:26" customFormat="1" ht="16">
+    <row r="119" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="102"/>
       <c r="C119" s="112"/>
       <c r="D119" s="112"/>
@@ -7687,7 +7574,7 @@
       <c r="Y119" s="112"/>
       <c r="Z119" s="112"/>
     </row>
-    <row r="120" spans="2:26" customFormat="1" ht="16">
+    <row r="120" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="102"/>
       <c r="C120" s="112"/>
       <c r="D120" s="112"/>
@@ -7714,7 +7601,7 @@
       <c r="Y120" s="112"/>
       <c r="Z120" s="112"/>
     </row>
-    <row r="121" spans="2:26" customFormat="1" ht="16">
+    <row r="121" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="102"/>
       <c r="C121" s="112"/>
       <c r="D121" s="112"/>
@@ -7741,7 +7628,7 @@
       <c r="Y121" s="112"/>
       <c r="Z121" s="112"/>
     </row>
-    <row r="122" spans="2:26" customFormat="1" ht="16">
+    <row r="122" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="102"/>
       <c r="C122" s="112"/>
       <c r="D122" s="112"/>
@@ -7768,7 +7655,7 @@
       <c r="Y122" s="112"/>
       <c r="Z122" s="112"/>
     </row>
-    <row r="123" spans="2:26" customFormat="1" ht="16">
+    <row r="123" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="102"/>
       <c r="C123" s="112"/>
       <c r="D123" s="112"/>
@@ -7795,7 +7682,7 @@
       <c r="Y123" s="112"/>
       <c r="Z123" s="112"/>
     </row>
-    <row r="124" spans="2:26" customFormat="1" ht="16">
+    <row r="124" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="102"/>
       <c r="C124" s="112"/>
       <c r="D124" s="112"/>
@@ -7822,7 +7709,7 @@
       <c r="Y124" s="112"/>
       <c r="Z124" s="112"/>
     </row>
-    <row r="125" spans="2:26" customFormat="1" ht="16">
+    <row r="125" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="102"/>
       <c r="C125" s="112"/>
       <c r="D125" s="112"/>
@@ -7849,7 +7736,7 @@
       <c r="Y125" s="112"/>
       <c r="Z125" s="112"/>
     </row>
-    <row r="126" spans="2:26" customFormat="1" ht="16">
+    <row r="126" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="102"/>
       <c r="C126" s="112"/>
       <c r="D126" s="112"/>
@@ -7876,7 +7763,7 @@
       <c r="Y126" s="112"/>
       <c r="Z126" s="112"/>
     </row>
-    <row r="127" spans="2:26" customFormat="1" ht="16">
+    <row r="127" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="102"/>
       <c r="C127" s="112"/>
       <c r="D127" s="112"/>
@@ -7903,7 +7790,7 @@
       <c r="Y127" s="112"/>
       <c r="Z127" s="112"/>
     </row>
-    <row r="128" spans="2:26" customFormat="1" ht="16">
+    <row r="128" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="102"/>
       <c r="C128" s="112"/>
       <c r="D128" s="112"/>
@@ -7930,7 +7817,7 @@
       <c r="Y128" s="112"/>
       <c r="Z128" s="112"/>
     </row>
-    <row r="129" spans="2:26" customFormat="1" ht="16">
+    <row r="129" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="102"/>
       <c r="C129" s="112"/>
       <c r="D129" s="112" t="s">
@@ -7959,7 +7846,7 @@
       <c r="Y129" s="112"/>
       <c r="Z129" s="112"/>
     </row>
-    <row r="130" spans="2:26" customFormat="1" ht="16">
+    <row r="130" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="102"/>
       <c r="C130" s="112"/>
       <c r="D130" s="112"/>
@@ -7992,7 +7879,7 @@
       <c r="Y130" s="112"/>
       <c r="Z130" s="112"/>
     </row>
-    <row r="131" spans="2:26" customFormat="1" ht="16">
+    <row r="131" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="102"/>
       <c r="C131" s="112"/>
       <c r="D131" s="112"/>
@@ -8021,7 +7908,7 @@
       <c r="Y131" s="112"/>
       <c r="Z131" s="112"/>
     </row>
-    <row r="132" spans="2:26" customFormat="1" ht="16">
+    <row r="132" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="102"/>
       <c r="C132" s="112"/>
       <c r="D132" s="112"/>
@@ -8054,7 +7941,7 @@
       <c r="Y132" s="112"/>
       <c r="Z132" s="112"/>
     </row>
-    <row r="133" spans="2:26" customFormat="1" ht="16">
+    <row r="133" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="102"/>
       <c r="C133" s="112"/>
       <c r="D133" s="112"/>
@@ -8087,7 +7974,7 @@
       <c r="Y133" s="112"/>
       <c r="Z133" s="112"/>
     </row>
-    <row r="134" spans="2:26" customFormat="1" ht="16">
+    <row r="134" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="102"/>
       <c r="C134" s="112"/>
       <c r="D134" s="112"/>
@@ -8120,7 +8007,7 @@
       <c r="Y134" s="112"/>
       <c r="Z134" s="112"/>
     </row>
-    <row r="135" spans="2:26" customFormat="1" ht="16">
+    <row r="135" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="102"/>
       <c r="C135" s="112"/>
       <c r="D135" s="112"/>
@@ -8156,7 +8043,7 @@
       <c r="Y135" s="112"/>
       <c r="Z135" s="112"/>
     </row>
-    <row r="136" spans="2:26" customFormat="1" ht="16">
+    <row r="136" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="102"/>
       <c r="C136" s="112"/>
       <c r="D136" s="112"/>
@@ -8183,7 +8070,7 @@
       <c r="Y136" s="112"/>
       <c r="Z136" s="112"/>
     </row>
-    <row r="137" spans="2:26" customFormat="1" ht="16">
+    <row r="137" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="102"/>
       <c r="C137" s="112"/>
       <c r="D137" s="112"/>
@@ -8212,7 +8099,7 @@
       <c r="Y137" s="112"/>
       <c r="Z137" s="112"/>
     </row>
-    <row r="138" spans="2:26" customFormat="1" ht="16">
+    <row r="138" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="102"/>
       <c r="C138" s="112"/>
       <c r="D138" s="112"/>
@@ -8245,7 +8132,7 @@
       <c r="Y138" s="112"/>
       <c r="Z138" s="112"/>
     </row>
-    <row r="139" spans="2:26" customFormat="1" ht="16">
+    <row r="139" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="102"/>
       <c r="C139" s="112"/>
       <c r="D139" s="112"/>
@@ -8278,7 +8165,7 @@
       <c r="Y139" s="112"/>
       <c r="Z139" s="112"/>
     </row>
-    <row r="140" spans="2:26" customFormat="1" ht="16">
+    <row r="140" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="102"/>
       <c r="C140" s="112"/>
       <c r="D140" s="112"/>
@@ -8311,7 +8198,7 @@
       <c r="Y140" s="112"/>
       <c r="Z140" s="112"/>
     </row>
-    <row r="141" spans="2:26" customFormat="1" ht="16">
+    <row r="141" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="102"/>
       <c r="C141" s="112"/>
       <c r="D141" s="112"/>
@@ -8345,7 +8232,7 @@
       <c r="Y141" s="112"/>
       <c r="Z141" s="112"/>
     </row>
-    <row r="142" spans="2:26" customFormat="1" ht="16">
+    <row r="142" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="102"/>
       <c r="C142" s="112"/>
       <c r="D142" s="112"/>
@@ -8379,7 +8266,7 @@
       <c r="Y142" s="112"/>
       <c r="Z142" s="112"/>
     </row>
-    <row r="143" spans="2:26" customFormat="1" ht="16">
+    <row r="143" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="102"/>
       <c r="C143" s="112"/>
       <c r="D143" s="112"/>
@@ -8406,7 +8293,7 @@
       <c r="Y143" s="112"/>
       <c r="Z143" s="112"/>
     </row>
-    <row r="144" spans="2:26" customFormat="1" ht="16">
+    <row r="144" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="102"/>
       <c r="C144" s="112"/>
       <c r="D144" s="112"/>
@@ -8435,7 +8322,7 @@
       <c r="Y144" s="112"/>
       <c r="Z144" s="112"/>
     </row>
-    <row r="145" spans="2:26" customFormat="1" ht="16">
+    <row r="145" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="102"/>
       <c r="C145" s="112"/>
       <c r="D145" s="112"/>
@@ -8468,7 +8355,7 @@
       <c r="Y145" s="112"/>
       <c r="Z145" s="112"/>
     </row>
-    <row r="146" spans="2:26" customFormat="1" ht="16">
+    <row r="146" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="102"/>
       <c r="C146" s="112"/>
       <c r="D146" s="112"/>
@@ -8497,7 +8384,7 @@
       <c r="Y146" s="112"/>
       <c r="Z146" s="112"/>
     </row>
-    <row r="147" spans="2:26" customFormat="1" ht="16">
+    <row r="147" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="102"/>
       <c r="C147" s="112"/>
       <c r="D147" s="112"/>
@@ -8530,7 +8417,7 @@
       <c r="Y147" s="112"/>
       <c r="Z147" s="112"/>
     </row>
-    <row r="148" spans="2:26" customFormat="1" ht="16">
+    <row r="148" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="102"/>
       <c r="C148" s="112"/>
       <c r="D148" s="112"/>
@@ -8563,7 +8450,7 @@
       <c r="Y148" s="112"/>
       <c r="Z148" s="112"/>
     </row>
-    <row r="149" spans="2:26" customFormat="1" ht="16">
+    <row r="149" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="102"/>
       <c r="C149" s="112"/>
       <c r="D149" s="112"/>
@@ -8596,7 +8483,7 @@
       <c r="Y149" s="112"/>
       <c r="Z149" s="112"/>
     </row>
-    <row r="150" spans="2:26" customFormat="1" ht="16">
+    <row r="150" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="102"/>
       <c r="C150" s="112"/>
       <c r="D150" s="112"/>
@@ -8630,7 +8517,7 @@
       <c r="Y150" s="112"/>
       <c r="Z150" s="112"/>
     </row>
-    <row r="151" spans="2:26" customFormat="1" ht="16">
+    <row r="151" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="102"/>
       <c r="C151" s="112"/>
       <c r="D151" s="112"/>
@@ -8657,7 +8544,7 @@
       <c r="Y151" s="112"/>
       <c r="Z151" s="112"/>
     </row>
-    <row r="152" spans="2:26" customFormat="1" ht="16">
+    <row r="152" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="102"/>
       <c r="C152" s="112"/>
       <c r="D152" s="112"/>
@@ -8686,7 +8573,7 @@
       <c r="Y152" s="112"/>
       <c r="Z152" s="112"/>
     </row>
-    <row r="153" spans="2:26" customFormat="1" ht="16">
+    <row r="153" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="102"/>
       <c r="C153" s="112"/>
       <c r="D153" s="112"/>
@@ -8719,7 +8606,7 @@
       <c r="Y153" s="112"/>
       <c r="Z153" s="112"/>
     </row>
-    <row r="154" spans="2:26" customFormat="1" ht="16">
+    <row r="154" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="102"/>
       <c r="C154" s="112"/>
       <c r="D154" s="112"/>
@@ -8752,7 +8639,7 @@
       <c r="Y154" s="112"/>
       <c r="Z154" s="112"/>
     </row>
-    <row r="155" spans="2:26" customFormat="1" ht="16">
+    <row r="155" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="102"/>
       <c r="C155" s="112"/>
       <c r="D155" s="112"/>
@@ -8785,7 +8672,7 @@
       <c r="Y155" s="112"/>
       <c r="Z155" s="112"/>
     </row>
-    <row r="156" spans="2:26" customFormat="1" ht="16">
+    <row r="156" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="102"/>
       <c r="C156" s="112"/>
       <c r="D156" s="112"/>
@@ -8819,7 +8706,7 @@
       <c r="Y156" s="112"/>
       <c r="Z156" s="112"/>
     </row>
-    <row r="157" spans="2:26" customFormat="1" ht="16">
+    <row r="157" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="102"/>
       <c r="C157" s="112"/>
       <c r="D157" s="112"/>
@@ -8853,7 +8740,7 @@
       <c r="Y157" s="112"/>
       <c r="Z157" s="112"/>
     </row>
-    <row r="158" spans="2:26" customFormat="1" ht="16">
+    <row r="158" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="102"/>
       <c r="C158" s="112"/>
       <c r="D158" s="112"/>
@@ -8880,7 +8767,7 @@
       <c r="Y158" s="112"/>
       <c r="Z158" s="112"/>
     </row>
-    <row r="159" spans="2:26" customFormat="1" ht="16">
+    <row r="159" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="102"/>
       <c r="C159" s="112"/>
       <c r="D159" s="112"/>
@@ -8907,7 +8794,7 @@
       <c r="Y159" s="112"/>
       <c r="Z159" s="112"/>
     </row>
-    <row r="160" spans="2:26" customFormat="1" ht="16">
+    <row r="160" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="102"/>
       <c r="C160" s="112"/>
       <c r="D160" s="112"/>
@@ -8934,7 +8821,7 @@
       <c r="Y160" s="112"/>
       <c r="Z160" s="112"/>
     </row>
-    <row r="161" spans="2:26" customFormat="1" ht="16">
+    <row r="161" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="102"/>
       <c r="C161" s="112"/>
       <c r="D161" s="112"/>
@@ -8961,7 +8848,7 @@
       <c r="Y161" s="112"/>
       <c r="Z161" s="112"/>
     </row>
-    <row r="162" spans="2:26" customFormat="1" ht="16">
+    <row r="162" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="102"/>
       <c r="C162" s="112"/>
       <c r="D162" s="112"/>
@@ -8988,7 +8875,7 @@
       <c r="Y162" s="112"/>
       <c r="Z162" s="112"/>
     </row>
-    <row r="163" spans="2:26" customFormat="1" ht="16">
+    <row r="163" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="102"/>
       <c r="C163" s="112"/>
       <c r="D163" s="112"/>
@@ -9015,7 +8902,7 @@
       <c r="Y163" s="112"/>
       <c r="Z163" s="112"/>
     </row>
-    <row r="164" spans="2:26" customFormat="1" ht="16">
+    <row r="164" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="102"/>
       <c r="C164" s="112"/>
       <c r="D164" s="112"/>
@@ -9042,7 +8929,7 @@
       <c r="Y164" s="112"/>
       <c r="Z164" s="112"/>
     </row>
-    <row r="165" spans="2:26" customFormat="1" ht="16">
+    <row r="165" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="102"/>
       <c r="C165" s="112"/>
       <c r="D165" s="112"/>
@@ -9069,7 +8956,7 @@
       <c r="Y165" s="112"/>
       <c r="Z165" s="112"/>
     </row>
-    <row r="166" spans="2:26" customFormat="1" ht="16">
+    <row r="166" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="102"/>
       <c r="C166" s="112"/>
       <c r="D166" s="112"/>
@@ -9096,7 +8983,7 @@
       <c r="Y166" s="112"/>
       <c r="Z166" s="112"/>
     </row>
-    <row r="167" spans="2:26" customFormat="1" ht="16">
+    <row r="167" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="102"/>
       <c r="C167" s="112"/>
       <c r="D167" s="112"/>
@@ -9123,7 +9010,7 @@
       <c r="Y167" s="112"/>
       <c r="Z167" s="112"/>
     </row>
-    <row r="168" spans="2:26" customFormat="1" ht="16">
+    <row r="168" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="102"/>
       <c r="C168" s="112"/>
       <c r="D168" s="112"/>
@@ -9150,7 +9037,7 @@
       <c r="Y168" s="112"/>
       <c r="Z168" s="112"/>
     </row>
-    <row r="169" spans="2:26" customFormat="1" ht="16">
+    <row r="169" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="102"/>
       <c r="C169" s="112"/>
       <c r="D169" s="112"/>
@@ -9177,7 +9064,7 @@
       <c r="Y169" s="112"/>
       <c r="Z169" s="112"/>
     </row>
-    <row r="170" spans="2:26" customFormat="1" ht="16">
+    <row r="170" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="102"/>
       <c r="C170" s="112"/>
       <c r="D170" s="112"/>
@@ -9204,7 +9091,7 @@
       <c r="Y170" s="112"/>
       <c r="Z170" s="112"/>
     </row>
-    <row r="171" spans="2:26" customFormat="1" ht="16">
+    <row r="171" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="102"/>
       <c r="C171" s="112"/>
       <c r="D171" s="112"/>
@@ -9231,7 +9118,7 @@
       <c r="Y171" s="112"/>
       <c r="Z171" s="112"/>
     </row>
-    <row r="172" spans="2:26" customFormat="1" ht="16">
+    <row r="172" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="102"/>
       <c r="C172" s="112"/>
       <c r="D172" s="112"/>
@@ -9258,7 +9145,7 @@
       <c r="Y172" s="112"/>
       <c r="Z172" s="112"/>
     </row>
-    <row r="173" spans="2:26" customFormat="1" ht="16">
+    <row r="173" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="102"/>
       <c r="C173" s="112"/>
       <c r="D173" s="112"/>
@@ -9285,7 +9172,7 @@
       <c r="Y173" s="112"/>
       <c r="Z173" s="112"/>
     </row>
-    <row r="174" spans="2:26" customFormat="1" ht="16">
+    <row r="174" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="102"/>
       <c r="C174" s="112"/>
       <c r="D174" s="112"/>
@@ -9312,7 +9199,7 @@
       <c r="Y174" s="112"/>
       <c r="Z174" s="112"/>
     </row>
-    <row r="175" spans="2:26" customFormat="1" ht="16">
+    <row r="175" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="102"/>
       <c r="C175" s="112"/>
       <c r="D175" s="112"/>
@@ -9339,7 +9226,7 @@
       <c r="Y175" s="112"/>
       <c r="Z175" s="112"/>
     </row>
-    <row r="176" spans="2:26" customFormat="1" ht="16">
+    <row r="176" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="102"/>
       <c r="C176" s="112"/>
       <c r="D176" s="112"/>
@@ -9366,7 +9253,7 @@
       <c r="Y176" s="112"/>
       <c r="Z176" s="112"/>
     </row>
-    <row r="177" spans="2:26" customFormat="1" ht="16">
+    <row r="177" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="102"/>
       <c r="C177" s="112"/>
       <c r="D177" s="112"/>
@@ -9393,7 +9280,7 @@
       <c r="Y177" s="112"/>
       <c r="Z177" s="112"/>
     </row>
-    <row r="178" spans="2:26" customFormat="1" ht="16">
+    <row r="178" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="102"/>
       <c r="C178" s="112"/>
       <c r="D178" s="112"/>
@@ -9420,7 +9307,7 @@
       <c r="Y178" s="112"/>
       <c r="Z178" s="112"/>
     </row>
-    <row r="179" spans="2:26" customFormat="1" ht="16">
+    <row r="179" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="102"/>
       <c r="C179" s="112"/>
       <c r="D179" s="112"/>
@@ -9447,7 +9334,7 @@
       <c r="Y179" s="112"/>
       <c r="Z179" s="112"/>
     </row>
-    <row r="180" spans="2:26" customFormat="1" ht="16">
+    <row r="180" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="102"/>
       <c r="C180" s="112"/>
       <c r="D180" s="112"/>
@@ -9474,7 +9361,7 @@
       <c r="Y180" s="112"/>
       <c r="Z180" s="112"/>
     </row>
-    <row r="181" spans="2:26" customFormat="1" ht="16">
+    <row r="181" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="102"/>
       <c r="C181" s="112"/>
       <c r="D181" s="112"/>
@@ -9501,7 +9388,7 @@
       <c r="Y181" s="112"/>
       <c r="Z181" s="112"/>
     </row>
-    <row r="182" spans="2:26" customFormat="1" ht="16">
+    <row r="182" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="102"/>
       <c r="C182" s="112"/>
       <c r="D182" s="112"/>
@@ -9528,7 +9415,7 @@
       <c r="Y182" s="112"/>
       <c r="Z182" s="112"/>
     </row>
-    <row r="183" spans="2:26" customFormat="1" ht="16">
+    <row r="183" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="102"/>
       <c r="C183" s="112"/>
       <c r="D183" s="112"/>
@@ -9555,7 +9442,7 @@
       <c r="Y183" s="112"/>
       <c r="Z183" s="112"/>
     </row>
-    <row r="184" spans="2:26" customFormat="1" ht="16">
+    <row r="184" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="102"/>
       <c r="C184" s="112"/>
       <c r="D184" s="112"/>
@@ -9582,7 +9469,7 @@
       <c r="Y184" s="112"/>
       <c r="Z184" s="112"/>
     </row>
-    <row r="185" spans="2:26" customFormat="1" ht="16">
+    <row r="185" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="102"/>
       <c r="C185" s="112"/>
       <c r="D185" s="112"/>
@@ -9609,7 +9496,7 @@
       <c r="Y185" s="112"/>
       <c r="Z185" s="112"/>
     </row>
-    <row r="186" spans="2:26" customFormat="1" ht="16">
+    <row r="186" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="102"/>
       <c r="C186" s="112"/>
       <c r="D186" s="112"/>
@@ -9636,7 +9523,7 @@
       <c r="Y186" s="112"/>
       <c r="Z186" s="112"/>
     </row>
-    <row r="187" spans="2:26" customFormat="1" ht="16">
+    <row r="187" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="102"/>
       <c r="C187" s="112"/>
       <c r="D187" s="112"/>
@@ -9663,7 +9550,7 @@
       <c r="Y187" s="112"/>
       <c r="Z187" s="112"/>
     </row>
-    <row r="188" spans="2:26" customFormat="1" ht="16">
+    <row r="188" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="102"/>
       <c r="C188" s="112"/>
       <c r="D188" s="112"/>
@@ -9690,7 +9577,7 @@
       <c r="Y188" s="112"/>
       <c r="Z188" s="112"/>
     </row>
-    <row r="189" spans="2:26" customFormat="1" ht="16">
+    <row r="189" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="102"/>
       <c r="C189" s="112"/>
       <c r="D189" s="112"/>
@@ -9717,7 +9604,7 @@
       <c r="Y189" s="112"/>
       <c r="Z189" s="112"/>
     </row>
-    <row r="190" spans="2:26" customFormat="1" ht="16">
+    <row r="190" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="102"/>
       <c r="C190" s="112"/>
       <c r="D190" s="112"/>
@@ -9744,7 +9631,7 @@
       <c r="Y190" s="112"/>
       <c r="Z190" s="112"/>
     </row>
-    <row r="191" spans="2:26" customFormat="1" ht="16">
+    <row r="191" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="102"/>
       <c r="C191" s="112"/>
       <c r="D191" s="112"/>
@@ -9771,7 +9658,7 @@
       <c r="Y191" s="112"/>
       <c r="Z191" s="112"/>
     </row>
-    <row r="192" spans="2:26" customFormat="1" ht="16">
+    <row r="192" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="102"/>
       <c r="C192" s="112"/>
       <c r="D192" s="112"/>
@@ -9798,7 +9685,7 @@
       <c r="Y192" s="112"/>
       <c r="Z192" s="112"/>
     </row>
-    <row r="193" spans="2:26" customFormat="1" ht="16">
+    <row r="193" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="102"/>
       <c r="C193" s="112"/>
       <c r="D193" s="112"/>
@@ -9825,7 +9712,7 @@
       <c r="Y193" s="112"/>
       <c r="Z193" s="112"/>
     </row>
-    <row r="194" spans="2:26" customFormat="1" ht="16">
+    <row r="194" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="102"/>
       <c r="C194" s="112"/>
       <c r="D194" s="112"/>
@@ -9852,7 +9739,7 @@
       <c r="Y194" s="112"/>
       <c r="Z194" s="112"/>
     </row>
-    <row r="195" spans="2:26" customFormat="1" ht="16">
+    <row r="195" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="102"/>
       <c r="C195" s="112"/>
       <c r="D195" s="112"/>
@@ -9879,7 +9766,7 @@
       <c r="Y195" s="112"/>
       <c r="Z195" s="112"/>
     </row>
-    <row r="196" spans="2:26" customFormat="1" ht="16">
+    <row r="196" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="102"/>
       <c r="C196" s="112"/>
       <c r="D196" s="112"/>
@@ -9906,7 +9793,7 @@
       <c r="Y196" s="112"/>
       <c r="Z196" s="112"/>
     </row>
-    <row r="197" spans="2:26" customFormat="1" ht="16">
+    <row r="197" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="102"/>
       <c r="C197" s="112"/>
       <c r="D197" s="112"/>
@@ -9935,7 +9822,7 @@
       <c r="Y197" s="112"/>
       <c r="Z197" s="112"/>
     </row>
-    <row r="198" spans="2:26" customFormat="1" ht="16">
+    <row r="198" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="102"/>
       <c r="C198" s="112"/>
       <c r="D198" s="112"/>
@@ -9962,7 +9849,7 @@
       <c r="Y198" s="112"/>
       <c r="Z198" s="112"/>
     </row>
-    <row r="199" spans="2:26" customFormat="1" ht="16">
+    <row r="199" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="102"/>
       <c r="C199" s="112"/>
       <c r="D199" s="112"/>
@@ -9991,7 +9878,7 @@
       <c r="Y199" s="112"/>
       <c r="Z199" s="112"/>
     </row>
-    <row r="200" spans="2:26" customFormat="1" ht="16">
+    <row r="200" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="102"/>
       <c r="C200" s="112"/>
       <c r="D200" s="112"/>
@@ -10018,7 +9905,7 @@
       <c r="Y200" s="112"/>
       <c r="Z200" s="112"/>
     </row>
-    <row r="201" spans="2:26" customFormat="1" ht="16">
+    <row r="201" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="102"/>
       <c r="C201" s="112"/>
       <c r="D201" s="112"/>
@@ -10047,7 +9934,7 @@
       <c r="Y201" s="112"/>
       <c r="Z201" s="112"/>
     </row>
-    <row r="202" spans="2:26" customFormat="1" ht="16">
+    <row r="202" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="102"/>
       <c r="C202" s="112"/>
       <c r="D202" s="112"/>
@@ -10076,7 +9963,7 @@
       <c r="Y202" s="112"/>
       <c r="Z202" s="112"/>
     </row>
-    <row r="203" spans="2:26" customFormat="1" ht="16">
+    <row r="203" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="102"/>
       <c r="C203" s="112"/>
       <c r="D203" s="112"/>
@@ -10105,7 +9992,7 @@
       <c r="Y203" s="112"/>
       <c r="Z203" s="112"/>
     </row>
-    <row r="204" spans="2:26" customFormat="1" ht="16">
+    <row r="204" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="102"/>
       <c r="C204" s="112"/>
       <c r="D204" s="112"/>
@@ -10135,7 +10022,7 @@
       <c r="Y204" s="112"/>
       <c r="Z204" s="112"/>
     </row>
-    <row r="205" spans="2:26" customFormat="1" ht="16">
+    <row r="205" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="102"/>
       <c r="C205" s="112"/>
       <c r="D205" s="145"/>
@@ -10162,7 +10049,7 @@
       <c r="Y205" s="112"/>
       <c r="Z205" s="112"/>
     </row>
-    <row r="206" spans="2:26" customFormat="1" ht="16">
+    <row r="206" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="102"/>
       <c r="C206" s="112"/>
       <c r="D206" s="112"/>
@@ -10189,7 +10076,7 @@
       <c r="Y206" s="112"/>
       <c r="Z206" s="112"/>
     </row>
-    <row r="207" spans="2:26" customFormat="1" ht="16">
+    <row r="207" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="102"/>
       <c r="C207" s="112"/>
       <c r="D207" s="112"/>
@@ -10216,7 +10103,7 @@
       <c r="Y207" s="112"/>
       <c r="Z207" s="112"/>
     </row>
-    <row r="208" spans="2:26" customFormat="1" ht="16">
+    <row r="208" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="102"/>
       <c r="C208" s="112"/>
       <c r="D208" s="112"/>
@@ -10243,7 +10130,7 @@
       <c r="Y208" s="112"/>
       <c r="Z208" s="112"/>
     </row>
-    <row r="209" spans="2:26" customFormat="1" ht="16">
+    <row r="209" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="102"/>
       <c r="C209" s="112"/>
       <c r="D209" s="112"/>
@@ -10272,7 +10159,7 @@
       <c r="Y209" s="112"/>
       <c r="Z209" s="112"/>
     </row>
-    <row r="210" spans="2:26" customFormat="1" ht="16">
+    <row r="210" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="102"/>
       <c r="C210" s="112"/>
       <c r="D210" s="112" t="s">
@@ -10306,7 +10193,7 @@
       <c r="Y210" s="112"/>
       <c r="Z210" s="112"/>
     </row>
-    <row r="211" spans="2:26" customFormat="1" ht="16">
+    <row r="211" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="102"/>
       <c r="C211" s="112"/>
       <c r="D211" s="112"/>
@@ -10333,7 +10220,7 @@
       <c r="Y211" s="112"/>
       <c r="Z211" s="112"/>
     </row>
-    <row r="212" spans="2:26" customFormat="1" ht="16">
+    <row r="212" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="102"/>
       <c r="C212" s="112"/>
       <c r="D212" s="112"/>
@@ -10365,7 +10252,7 @@
       <c r="Y212" s="112"/>
       <c r="Z212" s="112"/>
     </row>
-    <row r="213" spans="2:26" customFormat="1" ht="16">
+    <row r="213" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="102"/>
       <c r="C213" s="112"/>
       <c r="D213" s="112"/>
@@ -10397,7 +10284,7 @@
       <c r="Y213" s="112"/>
       <c r="Z213" s="112"/>
     </row>
-    <row r="214" spans="2:26" customFormat="1" ht="16">
+    <row r="214" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="102"/>
       <c r="C214" s="112"/>
       <c r="D214" s="112"/>
@@ -10432,7 +10319,7 @@
       <c r="Y214" s="112"/>
       <c r="Z214" s="112"/>
     </row>
-    <row r="215" spans="2:26" customFormat="1" ht="16">
+    <row r="215" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="102"/>
       <c r="C215" s="112"/>
       <c r="D215" s="112"/>
@@ -10464,7 +10351,7 @@
       <c r="Y215" s="112"/>
       <c r="Z215" s="112"/>
     </row>
-    <row r="216" spans="2:26" customFormat="1" ht="16">
+    <row r="216" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="102"/>
       <c r="C216" s="112"/>
       <c r="D216" s="112"/>
@@ -10491,7 +10378,7 @@
       <c r="Y216" s="112"/>
       <c r="Z216" s="112"/>
     </row>
-    <row r="217" spans="2:26" customFormat="1" ht="16">
+    <row r="217" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="102"/>
       <c r="C217" s="112"/>
       <c r="D217" s="112"/>
@@ -10517,7 +10404,7 @@
       <c r="X217" s="112"/>
       <c r="Y217" s="112"/>
     </row>
-    <row r="218" spans="2:26" customFormat="1" ht="17" thickBot="1">
+    <row r="218" spans="2:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B218" s="102"/>
       <c r="C218" s="112"/>
       <c r="D218" s="112"/>
@@ -10542,7 +10429,7 @@
       <c r="X218" s="112"/>
       <c r="Y218" s="112"/>
     </row>
-    <row r="219" spans="2:26" s="24" customFormat="1">
+    <row r="219" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="105"/>
       <c r="C219" s="105" t="s">
         <v>24</v>
@@ -10570,7 +10457,7 @@
       <c r="T219" s="105"/>
       <c r="U219" s="105"/>
     </row>
-    <row r="220" spans="2:26" customFormat="1" ht="16">
+    <row r="220" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="102"/>
       <c r="C220" s="112"/>
       <c r="D220" s="112"/>
@@ -10596,7 +10483,7 @@
       <c r="X220" s="112"/>
       <c r="Y220" s="112"/>
     </row>
-    <row r="221" spans="2:26" customFormat="1" ht="16">
+    <row r="221" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="102"/>
       <c r="C221" s="112"/>
       <c r="D221" s="112"/>
@@ -10621,7 +10508,7 @@
       <c r="W221" s="112"/>
       <c r="X221" s="112"/>
     </row>
-    <row r="222" spans="2:26" customFormat="1" ht="16">
+    <row r="222" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="102"/>
       <c r="C222" s="112" t="s">
         <v>138</v>
@@ -10648,7 +10535,7 @@
       <c r="W222" s="112"/>
       <c r="X222" s="112"/>
     </row>
-    <row r="223" spans="2:26" customFormat="1" ht="16">
+    <row r="223" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="102"/>
       <c r="C223" s="112"/>
       <c r="D223" s="112"/>
@@ -10674,7 +10561,7 @@
       <c r="X223" s="112"/>
       <c r="Y223" s="112"/>
     </row>
-    <row r="224" spans="2:26" customFormat="1" ht="16">
+    <row r="224" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="102"/>
       <c r="C224" s="112"/>
       <c r="D224" s="112" t="s">
@@ -10702,7 +10589,7 @@
       <c r="X224" s="112"/>
       <c r="Y224" s="112"/>
     </row>
-    <row r="225" spans="2:26" customFormat="1" ht="16">
+    <row r="225" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="102"/>
       <c r="C225" s="112"/>
       <c r="D225" s="112"/>
@@ -10735,7 +10622,7 @@
       <c r="Y225" s="112"/>
       <c r="Z225" s="112"/>
     </row>
-    <row r="226" spans="2:26" customFormat="1" ht="16">
+    <row r="226" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="102"/>
       <c r="C226" s="112"/>
       <c r="D226" s="112"/>
@@ -10768,7 +10655,7 @@
       <c r="Y226" s="112"/>
       <c r="Z226" s="112"/>
     </row>
-    <row r="227" spans="2:26" customFormat="1" ht="16">
+    <row r="227" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="102"/>
       <c r="C227" s="112"/>
       <c r="D227" s="112"/>
@@ -10795,7 +10682,7 @@
       <c r="Y227" s="112"/>
       <c r="Z227" s="112"/>
     </row>
-    <row r="228" spans="2:26" customFormat="1" ht="16">
+    <row r="228" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="102"/>
       <c r="C228" s="112"/>
       <c r="D228" s="112"/>
@@ -10822,7 +10709,7 @@
       <c r="Y228" s="112"/>
       <c r="Z228" s="112"/>
     </row>
-    <row r="229" spans="2:26" customFormat="1" ht="16">
+    <row r="229" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="102"/>
       <c r="C229" s="112"/>
       <c r="D229" s="112"/>
@@ -10849,7 +10736,7 @@
       <c r="Y229" s="112"/>
       <c r="Z229" s="112"/>
     </row>
-    <row r="230" spans="2:26" customFormat="1" ht="16">
+    <row r="230" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="102"/>
       <c r="C230" s="112"/>
       <c r="D230" s="112"/>
@@ -10876,7 +10763,7 @@
       <c r="Y230" s="112"/>
       <c r="Z230" s="112"/>
     </row>
-    <row r="231" spans="2:26" customFormat="1" ht="16">
+    <row r="231" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="102"/>
       <c r="C231" s="112"/>
       <c r="D231" s="112"/>
@@ -10903,7 +10790,7 @@
       <c r="Y231" s="112"/>
       <c r="Z231" s="112"/>
     </row>
-    <row r="232" spans="2:26" customFormat="1" ht="16">
+    <row r="232" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="102"/>
       <c r="C232" s="112"/>
       <c r="D232" s="112"/>
@@ -10930,7 +10817,7 @@
       <c r="Y232" s="112"/>
       <c r="Z232" s="112"/>
     </row>
-    <row r="233" spans="2:26" customFormat="1" ht="16">
+    <row r="233" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="102"/>
       <c r="C233" s="112"/>
       <c r="D233" s="112"/>
@@ -10957,7 +10844,7 @@
       <c r="Y233" s="112"/>
       <c r="Z233" s="112"/>
     </row>
-    <row r="234" spans="2:26" customFormat="1" ht="16">
+    <row r="234" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="102"/>
       <c r="C234" s="112"/>
       <c r="D234" s="112"/>
@@ -10984,7 +10871,7 @@
       <c r="Y234" s="112"/>
       <c r="Z234" s="112"/>
     </row>
-    <row r="235" spans="2:26" customFormat="1" ht="16">
+    <row r="235" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="102"/>
       <c r="C235" s="112"/>
       <c r="D235" s="112"/>
@@ -11011,7 +10898,7 @@
       <c r="Y235" s="112"/>
       <c r="Z235" s="112"/>
     </row>
-    <row r="236" spans="2:26" customFormat="1" ht="16">
+    <row r="236" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="102"/>
       <c r="C236" s="112"/>
       <c r="D236" s="112"/>
@@ -11038,7 +10925,7 @@
       <c r="Y236" s="112"/>
       <c r="Z236" s="112"/>
     </row>
-    <row r="237" spans="2:26" customFormat="1" ht="16">
+    <row r="237" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="102"/>
       <c r="C237" s="112"/>
       <c r="D237" s="112"/>
@@ -11065,7 +10952,7 @@
       <c r="Y237" s="112"/>
       <c r="Z237" s="112"/>
     </row>
-    <row r="238" spans="2:26" customFormat="1" ht="16">
+    <row r="238" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="102"/>
       <c r="C238" s="112"/>
       <c r="D238" s="112"/>
@@ -11092,7 +10979,7 @@
       <c r="Y238" s="112"/>
       <c r="Z238" s="112"/>
     </row>
-    <row r="239" spans="2:26" customFormat="1" ht="16">
+    <row r="239" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="102"/>
       <c r="C239" s="112"/>
       <c r="D239" s="112"/>
@@ -11119,7 +11006,7 @@
       <c r="Y239" s="112"/>
       <c r="Z239" s="112"/>
     </row>
-    <row r="240" spans="2:26" customFormat="1" ht="16">
+    <row r="240" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="102"/>
       <c r="C240" s="112"/>
       <c r="D240" s="112"/>
@@ -11146,7 +11033,7 @@
       <c r="Y240" s="112"/>
       <c r="Z240" s="112"/>
     </row>
-    <row r="241" spans="2:26" customFormat="1" ht="16">
+    <row r="241" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="102"/>
       <c r="C241" s="112"/>
       <c r="D241" s="112"/>
@@ -11173,7 +11060,7 @@
       <c r="Y241" s="112"/>
       <c r="Z241" s="112"/>
     </row>
-    <row r="242" spans="2:26" customFormat="1" ht="16">
+    <row r="242" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="102"/>
       <c r="C242" s="112"/>
       <c r="D242" s="112"/>
@@ -11200,7 +11087,7 @@
       <c r="Y242" s="112"/>
       <c r="Z242" s="112"/>
     </row>
-    <row r="243" spans="2:26" customFormat="1" ht="16">
+    <row r="243" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="102"/>
       <c r="C243" s="112"/>
       <c r="D243" s="112"/>
@@ -11227,7 +11114,7 @@
       <c r="Y243" s="112"/>
       <c r="Z243" s="112"/>
     </row>
-    <row r="244" spans="2:26" customFormat="1" ht="16">
+    <row r="244" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="102"/>
       <c r="C244" s="112"/>
       <c r="D244" s="112"/>
@@ -11254,7 +11141,7 @@
       <c r="Y244" s="112"/>
       <c r="Z244" s="112"/>
     </row>
-    <row r="245" spans="2:26" customFormat="1" ht="16">
+    <row r="245" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="102"/>
       <c r="C245" s="112"/>
       <c r="D245" s="112"/>
@@ -11281,7 +11168,7 @@
       <c r="Y245" s="112"/>
       <c r="Z245" s="112"/>
     </row>
-    <row r="246" spans="2:26" customFormat="1" ht="16">
+    <row r="246" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="102"/>
       <c r="C246" s="112"/>
       <c r="D246" s="112"/>
@@ -11308,7 +11195,7 @@
       <c r="Y246" s="112"/>
       <c r="Z246" s="112"/>
     </row>
-    <row r="247" spans="2:26" customFormat="1" ht="16">
+    <row r="247" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="102"/>
       <c r="C247" s="112"/>
       <c r="D247" s="112"/>
@@ -11335,7 +11222,7 @@
       <c r="Y247" s="112"/>
       <c r="Z247" s="112"/>
     </row>
-    <row r="248" spans="2:26" customFormat="1" ht="16">
+    <row r="248" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="102"/>
       <c r="C248" s="112"/>
       <c r="D248" s="112"/>
@@ -11362,7 +11249,7 @@
       <c r="Y248" s="112"/>
       <c r="Z248" s="112"/>
     </row>
-    <row r="249" spans="2:26" customFormat="1" ht="16">
+    <row r="249" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="102"/>
       <c r="C249" s="112"/>
       <c r="D249" s="112"/>
@@ -11389,7 +11276,7 @@
       <c r="Y249" s="112"/>
       <c r="Z249" s="112"/>
     </row>
-    <row r="250" spans="2:26" customFormat="1" ht="16">
+    <row r="250" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="102"/>
       <c r="C250" s="112"/>
       <c r="D250" s="112"/>
@@ -11416,7 +11303,7 @@
       <c r="Y250" s="112"/>
       <c r="Z250" s="112"/>
     </row>
-    <row r="251" spans="2:26" customFormat="1" ht="16">
+    <row r="251" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="102"/>
       <c r="C251" s="112"/>
       <c r="D251" s="112"/>
@@ -11443,7 +11330,7 @@
       <c r="Y251" s="112"/>
       <c r="Z251" s="112"/>
     </row>
-    <row r="252" spans="2:26" customFormat="1" ht="16">
+    <row r="252" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="102"/>
       <c r="C252" s="112"/>
       <c r="D252" s="112"/>
@@ -11470,7 +11357,7 @@
       <c r="Y252" s="112"/>
       <c r="Z252" s="112"/>
     </row>
-    <row r="253" spans="2:26" customFormat="1" ht="16">
+    <row r="253" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="102"/>
       <c r="C253" s="112"/>
       <c r="D253" s="112"/>
@@ -11497,7 +11384,7 @@
       <c r="Y253" s="112"/>
       <c r="Z253" s="112"/>
     </row>
-    <row r="254" spans="2:26" customFormat="1" ht="16">
+    <row r="254" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="102"/>
       <c r="C254" s="112"/>
       <c r="D254" s="112"/>
@@ -11524,7 +11411,7 @@
       <c r="Y254" s="112"/>
       <c r="Z254" s="112"/>
     </row>
-    <row r="255" spans="2:26" customFormat="1" ht="16">
+    <row r="255" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="102"/>
       <c r="C255" s="112"/>
       <c r="D255" s="112"/>
@@ -11551,7 +11438,7 @@
       <c r="Y255" s="112"/>
       <c r="Z255" s="112"/>
     </row>
-    <row r="256" spans="2:26" customFormat="1" ht="16">
+    <row r="256" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="102"/>
       <c r="C256" s="112"/>
       <c r="D256" s="112"/>
@@ -11578,7 +11465,7 @@
       <c r="Y256" s="112"/>
       <c r="Z256" s="112"/>
     </row>
-    <row r="257" spans="2:26" customFormat="1" ht="16">
+    <row r="257" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="102"/>
       <c r="C257" s="112"/>
       <c r="D257" s="112"/>
@@ -11605,7 +11492,7 @@
       <c r="Y257" s="112"/>
       <c r="Z257" s="112"/>
     </row>
-    <row r="258" spans="2:26" customFormat="1" ht="16">
+    <row r="258" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="102"/>
       <c r="C258" s="112"/>
       <c r="D258" s="112"/>
@@ -11632,7 +11519,7 @@
       <c r="Y258" s="112"/>
       <c r="Z258" s="112"/>
     </row>
-    <row r="259" spans="2:26" customFormat="1" ht="17" thickBot="1">
+    <row r="259" spans="2:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B259" s="102"/>
       <c r="C259" s="112"/>
       <c r="D259" s="112"/>
@@ -11658,7 +11545,7 @@
       <c r="X259" s="112"/>
       <c r="Y259" s="112"/>
     </row>
-    <row r="260" spans="2:26" s="24" customFormat="1">
+    <row r="260" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="105"/>
       <c r="C260" s="105" t="s">
         <v>24</v>
@@ -11686,7 +11573,7 @@
       <c r="T260" s="105"/>
       <c r="U260" s="105"/>
     </row>
-    <row r="261" spans="2:26" customFormat="1" ht="16">
+    <row r="261" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="102"/>
       <c r="C261" s="112"/>
       <c r="D261" s="112"/>
@@ -11712,7 +11599,7 @@
       <c r="X261" s="112"/>
       <c r="Y261" s="112"/>
     </row>
-    <row r="262" spans="2:26" customFormat="1" ht="16">
+    <row r="262" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="102"/>
       <c r="C262" s="112" t="s">
         <v>140</v>
@@ -11736,7 +11623,7 @@
       <c r="R262" s="112"/>
       <c r="S262" s="112"/>
     </row>
-    <row r="263" spans="2:26" customFormat="1" ht="16">
+    <row r="263" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="102"/>
       <c r="C263" s="112"/>
       <c r="D263" s="112"/>
@@ -11756,7 +11643,7 @@
       <c r="R263" s="112"/>
       <c r="S263" s="112"/>
     </row>
-    <row r="264" spans="2:26" customFormat="1" ht="16">
+    <row r="264" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="102"/>
       <c r="C264" s="112"/>
       <c r="D264" s="112" t="s">
@@ -11782,7 +11669,7 @@
       <c r="T264" s="112"/>
       <c r="U264" s="112"/>
     </row>
-    <row r="265" spans="2:26" customFormat="1" ht="16">
+    <row r="265" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="102"/>
       <c r="C265" s="112"/>
       <c r="D265" s="112"/>
@@ -11804,7 +11691,7 @@
       <c r="T265" s="112"/>
       <c r="U265" s="112"/>
     </row>
-    <row r="266" spans="2:26" customFormat="1" ht="16">
+    <row r="266" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B266" s="102"/>
       <c r="C266" s="112"/>
       <c r="D266" s="112"/>
@@ -11825,7 +11712,7 @@
       <c r="T266" s="112"/>
       <c r="U266" s="112"/>
     </row>
-    <row r="267" spans="2:26" customFormat="1" ht="16">
+    <row r="267" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="102"/>
       <c r="C267" s="112"/>
       <c r="D267" s="112"/>
@@ -11847,7 +11734,7 @@
       <c r="T267" s="112"/>
       <c r="U267" s="112"/>
     </row>
-    <row r="268" spans="2:26" customFormat="1" ht="16">
+    <row r="268" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="102"/>
       <c r="C268" s="112"/>
       <c r="D268" s="112"/>
@@ -11867,7 +11754,7 @@
       <c r="T268" s="112"/>
       <c r="U268" s="112"/>
     </row>
-    <row r="269" spans="2:26" customFormat="1" ht="16">
+    <row r="269" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="102"/>
       <c r="C269" s="112"/>
       <c r="D269" s="112"/>
@@ -11891,7 +11778,7 @@
       <c r="T269" s="112"/>
       <c r="U269" s="112"/>
     </row>
-    <row r="270" spans="2:26" customFormat="1" ht="16">
+    <row r="270" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B270" s="102"/>
       <c r="C270" s="112"/>
       <c r="D270" s="112"/>
@@ -11917,7 +11804,7 @@
       <c r="T270" s="112"/>
       <c r="U270" s="112"/>
     </row>
-    <row r="271" spans="2:26" customFormat="1" ht="16">
+    <row r="271" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="102"/>
       <c r="C271" s="112"/>
       <c r="D271" s="112"/>
@@ -11945,7 +11832,7 @@
       <c r="T271" s="112"/>
       <c r="U271" s="112"/>
     </row>
-    <row r="272" spans="2:26" customFormat="1" ht="16">
+    <row r="272" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="102"/>
       <c r="C272" s="112"/>
       <c r="D272" s="112"/>
@@ -11973,7 +11860,7 @@
       <c r="T272" s="112"/>
       <c r="U272" s="112"/>
     </row>
-    <row r="273" spans="2:21" customFormat="1" ht="16">
+    <row r="273" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="102"/>
       <c r="C273" s="112"/>
       <c r="D273" s="112"/>
@@ -12001,7 +11888,7 @@
       <c r="T273" s="112"/>
       <c r="U273" s="112"/>
     </row>
-    <row r="274" spans="2:21" customFormat="1" ht="16">
+    <row r="274" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="102"/>
       <c r="C274" s="112"/>
       <c r="D274" s="112"/>
@@ -12028,7 +11915,7 @@
       <c r="T274" s="112"/>
       <c r="U274" s="112"/>
     </row>
-    <row r="275" spans="2:21" customFormat="1" ht="16">
+    <row r="275" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="102"/>
       <c r="C275" s="112"/>
       <c r="D275" s="112"/>
@@ -12056,7 +11943,7 @@
       <c r="T275" s="112"/>
       <c r="U275" s="112"/>
     </row>
-    <row r="276" spans="2:21" customFormat="1" ht="16">
+    <row r="276" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="102"/>
       <c r="C276" s="112"/>
       <c r="D276" s="112"/>
@@ -12084,7 +11971,7 @@
       <c r="T276" s="112"/>
       <c r="U276" s="112"/>
     </row>
-    <row r="277" spans="2:21" customFormat="1" ht="16">
+    <row r="277" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="102"/>
       <c r="C277" s="112"/>
       <c r="D277" s="112"/>
@@ -12102,7 +11989,7 @@
       <c r="T277" s="112"/>
       <c r="U277" s="112"/>
     </row>
-    <row r="278" spans="2:21" customFormat="1" ht="16">
+    <row r="278" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="102"/>
       <c r="C278" s="112"/>
       <c r="D278" s="112"/>
@@ -12120,7 +12007,7 @@
       <c r="T278" s="112"/>
       <c r="U278" s="112"/>
     </row>
-    <row r="279" spans="2:21" customFormat="1" ht="16">
+    <row r="279" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="102"/>
       <c r="C279" s="112"/>
       <c r="D279" s="112"/>
@@ -12138,7 +12025,7 @@
       <c r="T279" s="112"/>
       <c r="U279" s="112"/>
     </row>
-    <row r="280" spans="2:21" customFormat="1" ht="16">
+    <row r="280" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="102"/>
       <c r="C280" s="112"/>
       <c r="D280" s="112"/>
@@ -12162,7 +12049,7 @@
       <c r="T280" s="112"/>
       <c r="U280" s="112"/>
     </row>
-    <row r="281" spans="2:21" customFormat="1" ht="16">
+    <row r="281" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="102"/>
       <c r="C281" s="112"/>
       <c r="D281" s="112"/>
@@ -12190,7 +12077,7 @@
       <c r="T281" s="112"/>
       <c r="U281" s="112"/>
     </row>
-    <row r="282" spans="2:21" customFormat="1" ht="16">
+    <row r="282" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="102"/>
       <c r="C282" s="112"/>
       <c r="D282" s="112"/>
@@ -12218,7 +12105,7 @@
       <c r="T282" s="112"/>
       <c r="U282" s="112"/>
     </row>
-    <row r="283" spans="2:21" customFormat="1" ht="16">
+    <row r="283" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="102"/>
       <c r="C283" s="112"/>
       <c r="D283" s="112"/>
@@ -12246,7 +12133,7 @@
       <c r="T283" s="112"/>
       <c r="U283" s="112"/>
     </row>
-    <row r="284" spans="2:21" customFormat="1" ht="16">
+    <row r="284" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="102"/>
       <c r="C284" s="112"/>
       <c r="D284" s="112"/>
@@ -12274,7 +12161,7 @@
       <c r="T284" s="112"/>
       <c r="U284" s="112"/>
     </row>
-    <row r="285" spans="2:21" customFormat="1" ht="16">
+    <row r="285" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="102"/>
       <c r="C285" s="112"/>
       <c r="D285" s="112"/>
@@ -12301,7 +12188,7 @@
       <c r="T285" s="112"/>
       <c r="U285" s="112"/>
     </row>
-    <row r="286" spans="2:21" customFormat="1" ht="16">
+    <row r="286" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="102"/>
       <c r="C286" s="112"/>
       <c r="D286" s="112"/>
@@ -12329,7 +12216,7 @@
       <c r="T286" s="112"/>
       <c r="U286" s="112"/>
     </row>
-    <row r="287" spans="2:21" customFormat="1" ht="16">
+    <row r="287" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="102"/>
       <c r="C287" s="112"/>
       <c r="D287" s="112"/>
@@ -12357,7 +12244,7 @@
       <c r="T287" s="112"/>
       <c r="U287" s="112"/>
     </row>
-    <row r="288" spans="2:21" customFormat="1" ht="16">
+    <row r="288" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="102"/>
       <c r="C288" s="112"/>
       <c r="D288" s="112"/>
@@ -12379,7 +12266,7 @@
       <c r="T288" s="112"/>
       <c r="U288" s="112"/>
     </row>
-    <row r="289" spans="2:25" customFormat="1" ht="16">
+    <row r="289" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="102"/>
       <c r="C289" s="112"/>
       <c r="D289" s="112"/>
@@ -12403,7 +12290,7 @@
       <c r="T289" s="112"/>
       <c r="U289" s="112"/>
     </row>
-    <row r="290" spans="2:25" customFormat="1" ht="16">
+    <row r="290" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="102"/>
       <c r="C290" s="112"/>
       <c r="D290" s="112"/>
@@ -12432,7 +12319,7 @@
       <c r="T290" s="112"/>
       <c r="U290" s="112"/>
     </row>
-    <row r="291" spans="2:25" customFormat="1" ht="16">
+    <row r="291" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="102"/>
       <c r="C291" s="112"/>
       <c r="D291" s="112"/>
@@ -12454,7 +12341,7 @@
       <c r="T291" s="112"/>
       <c r="U291" s="112"/>
     </row>
-    <row r="292" spans="2:25" customFormat="1" ht="16">
+    <row r="292" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="102"/>
       <c r="C292" s="112"/>
       <c r="D292" s="112"/>
@@ -12478,7 +12365,7 @@
       <c r="T292" s="112"/>
       <c r="U292" s="112"/>
     </row>
-    <row r="293" spans="2:25" customFormat="1" ht="16">
+    <row r="293" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="102"/>
       <c r="C293" s="112"/>
       <c r="D293" s="112"/>
@@ -12507,7 +12394,7 @@
       <c r="T293" s="112"/>
       <c r="U293" s="112"/>
     </row>
-    <row r="294" spans="2:25" customFormat="1" ht="16">
+    <row r="294" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="102"/>
       <c r="C294" s="112"/>
       <c r="D294" s="112"/>
@@ -12536,7 +12423,7 @@
       <c r="T294" s="112"/>
       <c r="U294" s="112"/>
     </row>
-    <row r="295" spans="2:25" customFormat="1" ht="16">
+    <row r="295" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="102"/>
       <c r="C295" s="112"/>
       <c r="D295" s="112"/>
@@ -12558,7 +12445,7 @@
       <c r="T295" s="112"/>
       <c r="U295" s="112"/>
     </row>
-    <row r="296" spans="2:25" customFormat="1" ht="16">
+    <row r="296" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="102"/>
       <c r="C296" s="112"/>
       <c r="D296" s="112"/>
@@ -12580,7 +12467,7 @@
       <c r="T296" s="112"/>
       <c r="U296" s="112"/>
     </row>
-    <row r="297" spans="2:25" customFormat="1" ht="16">
+    <row r="297" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="102"/>
       <c r="C297" s="112"/>
       <c r="D297" s="112"/>
@@ -12602,7 +12489,7 @@
       <c r="T297" s="112"/>
       <c r="U297" s="112"/>
     </row>
-    <row r="298" spans="2:25" customFormat="1" ht="16">
+    <row r="298" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="102"/>
       <c r="C298" s="112"/>
       <c r="D298" s="112"/>
@@ -12624,7 +12511,7 @@
       <c r="T298" s="112"/>
       <c r="U298" s="112"/>
     </row>
-    <row r="299" spans="2:25" customFormat="1" ht="16">
+    <row r="299" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="102"/>
       <c r="C299" s="112"/>
       <c r="D299" s="112"/>
@@ -12646,7 +12533,7 @@
       <c r="T299" s="112"/>
       <c r="U299" s="112"/>
     </row>
-    <row r="300" spans="2:25" customFormat="1" ht="16">
+    <row r="300" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="102"/>
       <c r="C300" s="112"/>
       <c r="D300" s="112"/>
@@ -12668,7 +12555,7 @@
       <c r="T300" s="112"/>
       <c r="U300" s="112"/>
     </row>
-    <row r="301" spans="2:25" customFormat="1" ht="16">
+    <row r="301" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="102"/>
       <c r="C301" s="112"/>
       <c r="D301" s="112"/>
@@ -12690,7 +12577,7 @@
       <c r="T301" s="112"/>
       <c r="U301" s="112"/>
     </row>
-    <row r="302" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="302" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B302" s="102"/>
       <c r="C302" s="112"/>
       <c r="D302" s="112"/>
@@ -12712,7 +12599,7 @@
       <c r="T302" s="112"/>
       <c r="U302" s="112"/>
     </row>
-    <row r="303" spans="2:25" s="24" customFormat="1">
+    <row r="303" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="105"/>
       <c r="C303" s="105" t="s">
         <v>24</v>
@@ -12740,7 +12627,7 @@
       <c r="T303" s="105"/>
       <c r="U303" s="105"/>
     </row>
-    <row r="304" spans="2:25" customFormat="1" ht="16">
+    <row r="304" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="102"/>
       <c r="C304" s="112"/>
       <c r="D304" s="112"/>
@@ -12766,7 +12653,7 @@
       <c r="X304" s="112"/>
       <c r="Y304" s="112"/>
     </row>
-    <row r="305" spans="2:21" customFormat="1" ht="16">
+    <row r="305" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="102"/>
       <c r="C305" s="118" t="s">
         <v>161</v>
@@ -12789,7 +12676,7 @@
       <c r="S305" s="112"/>
       <c r="T305" s="112"/>
     </row>
-    <row r="306" spans="2:21" customFormat="1" ht="16">
+    <row r="306" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="102"/>
       <c r="C306" s="112"/>
       <c r="D306" s="112"/>
@@ -12811,7 +12698,7 @@
       <c r="T306" s="112"/>
       <c r="U306" s="112"/>
     </row>
-    <row r="307" spans="2:21" customFormat="1" ht="16">
+    <row r="307" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="102"/>
       <c r="C307" s="112"/>
       <c r="D307" s="112"/>
@@ -12839,7 +12726,7 @@
       <c r="T307" s="112"/>
       <c r="U307" s="112"/>
     </row>
-    <row r="308" spans="2:21" customFormat="1" ht="16">
+    <row r="308" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="102"/>
       <c r="C308" s="112"/>
       <c r="D308" s="112"/>
@@ -12868,7 +12755,7 @@
       <c r="T308" s="112"/>
       <c r="U308" s="112"/>
     </row>
-    <row r="309" spans="2:21" customFormat="1" ht="16">
+    <row r="309" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="102"/>
       <c r="C309" s="112"/>
       <c r="D309" s="112"/>
@@ -12890,7 +12777,7 @@
       <c r="T309" s="112"/>
       <c r="U309" s="112"/>
     </row>
-    <row r="310" spans="2:21" customFormat="1" ht="16">
+    <row r="310" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="102"/>
       <c r="C310" s="112"/>
       <c r="D310" s="112"/>
@@ -12912,7 +12799,7 @@
       <c r="T310" s="112"/>
       <c r="U310" s="112"/>
     </row>
-    <row r="311" spans="2:21" customFormat="1" ht="16">
+    <row r="311" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="102"/>
       <c r="C311" s="112"/>
       <c r="D311" s="112"/>
@@ -12934,7 +12821,7 @@
       <c r="T311" s="112"/>
       <c r="U311" s="112"/>
     </row>
-    <row r="312" spans="2:21" customFormat="1" ht="16">
+    <row r="312" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="102"/>
       <c r="C312" s="112"/>
       <c r="D312" s="112"/>
@@ -12956,7 +12843,7 @@
       <c r="T312" s="112"/>
       <c r="U312" s="112"/>
     </row>
-    <row r="313" spans="2:21" customFormat="1" ht="16">
+    <row r="313" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="102"/>
       <c r="C313" s="112"/>
       <c r="D313" s="112"/>
@@ -12978,7 +12865,7 @@
       <c r="T313" s="112"/>
       <c r="U313" s="112"/>
     </row>
-    <row r="314" spans="2:21" customFormat="1" ht="16">
+    <row r="314" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="102"/>
       <c r="C314" s="112"/>
       <c r="D314" s="112"/>
@@ -13000,7 +12887,7 @@
       <c r="T314" s="112"/>
       <c r="U314" s="112"/>
     </row>
-    <row r="315" spans="2:21" customFormat="1" ht="16">
+    <row r="315" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="102"/>
       <c r="C315" s="112"/>
       <c r="D315" s="112"/>
@@ -13022,7 +12909,7 @@
       <c r="T315" s="112"/>
       <c r="U315" s="112"/>
     </row>
-    <row r="316" spans="2:21" customFormat="1" ht="16">
+    <row r="316" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="102"/>
       <c r="C316" s="112"/>
       <c r="D316" s="112"/>
@@ -13044,7 +12931,7 @@
       <c r="T316" s="112"/>
       <c r="U316" s="112"/>
     </row>
-    <row r="317" spans="2:21" customFormat="1" ht="16">
+    <row r="317" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="102"/>
       <c r="C317" s="112"/>
       <c r="D317" s="112"/>
@@ -13066,7 +12953,7 @@
       <c r="T317" s="112"/>
       <c r="U317" s="112"/>
     </row>
-    <row r="318" spans="2:21" customFormat="1" ht="16">
+    <row r="318" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="102"/>
       <c r="C318" s="112"/>
       <c r="D318" s="112"/>
@@ -13088,7 +12975,7 @@
       <c r="T318" s="112"/>
       <c r="U318" s="112"/>
     </row>
-    <row r="319" spans="2:21" customFormat="1" ht="16">
+    <row r="319" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="102"/>
       <c r="C319" s="112"/>
       <c r="D319" s="112"/>
@@ -13110,7 +12997,7 @@
       <c r="T319" s="112"/>
       <c r="U319" s="112"/>
     </row>
-    <row r="320" spans="2:21" customFormat="1" ht="16">
+    <row r="320" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" s="102"/>
       <c r="C320" s="112"/>
       <c r="D320" s="112"/>
@@ -13132,7 +13019,7 @@
       <c r="T320" s="112"/>
       <c r="U320" s="112"/>
     </row>
-    <row r="321" spans="2:21" customFormat="1" ht="16">
+    <row r="321" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" s="102"/>
       <c r="C321" s="112"/>
       <c r="D321" s="112"/>
@@ -13154,7 +13041,7 @@
       <c r="T321" s="112"/>
       <c r="U321" s="112"/>
     </row>
-    <row r="322" spans="2:21" customFormat="1" ht="16">
+    <row r="322" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="102"/>
       <c r="C322" s="112"/>
       <c r="D322" s="112"/>
@@ -13176,7 +13063,7 @@
       <c r="T322" s="112"/>
       <c r="U322" s="112"/>
     </row>
-    <row r="323" spans="2:21" customFormat="1" ht="16">
+    <row r="323" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" s="102"/>
       <c r="C323" s="112"/>
       <c r="D323" s="112"/>
@@ -13198,7 +13085,7 @@
       <c r="T323" s="112"/>
       <c r="U323" s="112"/>
     </row>
-    <row r="324" spans="2:21" customFormat="1" ht="16">
+    <row r="324" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="102"/>
       <c r="C324" s="112"/>
       <c r="D324" s="112"/>
@@ -13220,7 +13107,7 @@
       <c r="T324" s="112"/>
       <c r="U324" s="112"/>
     </row>
-    <row r="325" spans="2:21" customFormat="1" ht="16">
+    <row r="325" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="102"/>
       <c r="C325" s="112"/>
       <c r="D325" s="112"/>
@@ -13242,7 +13129,7 @@
       <c r="T325" s="112"/>
       <c r="U325" s="112"/>
     </row>
-    <row r="326" spans="2:21" customFormat="1" ht="16">
+    <row r="326" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="102"/>
       <c r="C326" s="112"/>
       <c r="D326" s="112"/>
@@ -13264,7 +13151,7 @@
       <c r="T326" s="112"/>
       <c r="U326" s="112"/>
     </row>
-    <row r="327" spans="2:21" customFormat="1" ht="16">
+    <row r="327" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="102"/>
       <c r="C327" s="112"/>
       <c r="D327" s="112"/>
@@ -13286,7 +13173,7 @@
       <c r="T327" s="112"/>
       <c r="U327" s="112"/>
     </row>
-    <row r="328" spans="2:21" customFormat="1" ht="16">
+    <row r="328" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="102"/>
       <c r="C328" s="112"/>
       <c r="D328" s="112"/>
@@ -13308,7 +13195,7 @@
       <c r="T328" s="112"/>
       <c r="U328" s="112"/>
     </row>
-    <row r="329" spans="2:21" customFormat="1" ht="16">
+    <row r="329" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="102"/>
       <c r="C329" s="112"/>
       <c r="D329" s="112"/>
@@ -13330,7 +13217,7 @@
       <c r="T329" s="112"/>
       <c r="U329" s="112"/>
     </row>
-    <row r="330" spans="2:21" customFormat="1" ht="16">
+    <row r="330" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="102"/>
       <c r="C330" s="112"/>
       <c r="D330" s="112"/>
@@ -13352,7 +13239,7 @@
       <c r="T330" s="112"/>
       <c r="U330" s="112"/>
     </row>
-    <row r="331" spans="2:21" customFormat="1" ht="16">
+    <row r="331" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="102"/>
       <c r="C331" s="112"/>
       <c r="D331" s="112"/>
@@ -13374,7 +13261,7 @@
       <c r="T331" s="112"/>
       <c r="U331" s="112"/>
     </row>
-    <row r="332" spans="2:21" customFormat="1" ht="16">
+    <row r="332" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="102"/>
       <c r="C332" s="112"/>
       <c r="D332" s="112"/>
@@ -13396,7 +13283,7 @@
       <c r="T332" s="112"/>
       <c r="U332" s="112"/>
     </row>
-    <row r="333" spans="2:21" customFormat="1" ht="16">
+    <row r="333" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="102"/>
       <c r="C333" s="112"/>
       <c r="D333" s="112"/>
@@ -13418,7 +13305,7 @@
       <c r="T333" s="112"/>
       <c r="U333" s="112"/>
     </row>
-    <row r="334" spans="2:21" customFormat="1" ht="16">
+    <row r="334" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="102"/>
       <c r="C334" s="112"/>
       <c r="D334" s="112"/>
@@ -13440,7 +13327,7 @@
       <c r="T334" s="112"/>
       <c r="U334" s="112"/>
     </row>
-    <row r="335" spans="2:21" customFormat="1" ht="16">
+    <row r="335" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="102"/>
       <c r="C335" s="112"/>
       <c r="D335" s="112"/>
@@ -13462,7 +13349,7 @@
       <c r="T335" s="112"/>
       <c r="U335" s="112"/>
     </row>
-    <row r="336" spans="2:21" customFormat="1" ht="16">
+    <row r="336" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="102"/>
       <c r="C336" s="112"/>
       <c r="D336" s="112"/>
@@ -13484,7 +13371,7 @@
       <c r="T336" s="112"/>
       <c r="U336" s="112"/>
     </row>
-    <row r="337" spans="2:25" customFormat="1" ht="16">
+    <row r="337" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="102"/>
       <c r="C337" s="112"/>
       <c r="D337" s="112"/>
@@ -13506,7 +13393,7 @@
       <c r="T337" s="112"/>
       <c r="U337" s="112"/>
     </row>
-    <row r="338" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="338" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B338" s="102"/>
       <c r="C338" s="112"/>
       <c r="D338" s="112"/>
@@ -13528,7 +13415,7 @@
       <c r="T338" s="112"/>
       <c r="U338" s="112"/>
     </row>
-    <row r="339" spans="2:25" s="24" customFormat="1">
+    <row r="339" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="105"/>
       <c r="C339" s="105" t="s">
         <v>24</v>
@@ -13556,7 +13443,7 @@
       <c r="T339" s="105"/>
       <c r="U339" s="105"/>
     </row>
-    <row r="340" spans="2:25" customFormat="1" ht="16">
+    <row r="340" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="102"/>
       <c r="C340" s="112"/>
       <c r="D340" s="112"/>
@@ -13582,7 +13469,7 @@
       <c r="X340" s="112"/>
       <c r="Y340" s="112"/>
     </row>
-    <row r="341" spans="2:25" customFormat="1" ht="16">
+    <row r="341" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="102"/>
       <c r="C341" s="112" t="s">
         <v>53</v>
@@ -13610,7 +13497,7 @@
       <c r="X341" s="112"/>
       <c r="Y341" s="112"/>
     </row>
-    <row r="342" spans="2:25" customFormat="1" ht="16">
+    <row r="342" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="102"/>
       <c r="C342" s="112"/>
       <c r="D342" s="112"/>
@@ -13636,7 +13523,7 @@
       <c r="X342" s="112"/>
       <c r="Y342" s="112"/>
     </row>
-    <row r="343" spans="2:25" customFormat="1" ht="16">
+    <row r="343" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="102"/>
       <c r="C343" s="112"/>
       <c r="D343" s="112"/>
@@ -13662,7 +13549,7 @@
       <c r="X343" s="112"/>
       <c r="Y343" s="112"/>
     </row>
-    <row r="344" spans="2:25" customFormat="1" ht="16">
+    <row r="344" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="102"/>
       <c r="C344" s="112"/>
       <c r="D344" s="112"/>
@@ -13688,7 +13575,7 @@
       <c r="X344" s="112"/>
       <c r="Y344" s="112"/>
     </row>
-    <row r="345" spans="2:25" customFormat="1" ht="16">
+    <row r="345" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="102"/>
       <c r="C345" s="112"/>
       <c r="D345" s="112">
@@ -13719,7 +13606,7 @@
       <c r="X345" s="112"/>
       <c r="Y345" s="112"/>
     </row>
-    <row r="346" spans="2:25" customFormat="1" ht="16">
+    <row r="346" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="102"/>
       <c r="C346" s="112"/>
       <c r="D346" s="112"/>
@@ -13750,7 +13637,7 @@
       <c r="X346" s="112"/>
       <c r="Y346" s="112"/>
     </row>
-    <row r="347" spans="2:25" customFormat="1" ht="16">
+    <row r="347" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="102"/>
       <c r="C347" s="112"/>
       <c r="D347" s="112"/>
@@ -13779,7 +13666,7 @@
       <c r="X347" s="112"/>
       <c r="Y347" s="112"/>
     </row>
-    <row r="348" spans="2:25" customFormat="1" ht="16">
+    <row r="348" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="102"/>
       <c r="C348" s="112"/>
       <c r="D348" s="112"/>
@@ -13808,7 +13695,7 @@
       <c r="X348" s="112"/>
       <c r="Y348" s="112"/>
     </row>
-    <row r="349" spans="2:25" customFormat="1" ht="16">
+    <row r="349" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="102"/>
       <c r="C349" s="112"/>
       <c r="D349" s="112"/>
@@ -13834,7 +13721,7 @@
       <c r="X349" s="112"/>
       <c r="Y349" s="112"/>
     </row>
-    <row r="350" spans="2:25" customFormat="1" ht="16">
+    <row r="350" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" s="102"/>
       <c r="C350" s="112"/>
       <c r="D350" s="112"/>
@@ -13865,7 +13752,7 @@
       <c r="X350" s="112"/>
       <c r="Y350" s="112"/>
     </row>
-    <row r="351" spans="2:25" customFormat="1" ht="16">
+    <row r="351" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="102"/>
       <c r="C351" s="112"/>
       <c r="D351" s="112"/>
@@ -13900,7 +13787,7 @@
       <c r="X351" s="112"/>
       <c r="Y351" s="112"/>
     </row>
-    <row r="352" spans="2:25" customFormat="1" ht="16">
+    <row r="352" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="102"/>
       <c r="C352" s="112"/>
       <c r="D352" s="112"/>
@@ -13926,7 +13813,7 @@
       <c r="X352" s="112"/>
       <c r="Y352" s="112"/>
     </row>
-    <row r="353" spans="2:25" customFormat="1" ht="16">
+    <row r="353" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="102"/>
       <c r="C353" s="112"/>
       <c r="D353" s="112"/>
@@ -13952,7 +13839,7 @@
       <c r="X353" s="112"/>
       <c r="Y353" s="112"/>
     </row>
-    <row r="354" spans="2:25" customFormat="1" ht="16">
+    <row r="354" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="102"/>
       <c r="C354" s="112"/>
       <c r="D354" s="112"/>
@@ -13978,7 +13865,7 @@
       <c r="X354" s="112"/>
       <c r="Y354" s="112"/>
     </row>
-    <row r="355" spans="2:25" customFormat="1" ht="16">
+    <row r="355" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="102"/>
       <c r="C355" s="112"/>
       <c r="D355" s="112"/>
@@ -14004,7 +13891,7 @@
       <c r="X355" s="112"/>
       <c r="Y355" s="112"/>
     </row>
-    <row r="356" spans="2:25" customFormat="1" ht="16">
+    <row r="356" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B356" s="102"/>
       <c r="C356" s="112"/>
       <c r="D356" s="112"/>
@@ -14030,7 +13917,7 @@
       <c r="X356" s="112"/>
       <c r="Y356" s="112"/>
     </row>
-    <row r="357" spans="2:25" customFormat="1" ht="16">
+    <row r="357" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="102"/>
       <c r="C357" s="112"/>
       <c r="D357" s="112"/>
@@ -14056,7 +13943,7 @@
       <c r="X357" s="112"/>
       <c r="Y357" s="112"/>
     </row>
-    <row r="358" spans="2:25" customFormat="1" ht="16">
+    <row r="358" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="102"/>
       <c r="C358" s="112"/>
       <c r="D358" s="112"/>
@@ -14082,7 +13969,7 @@
       <c r="X358" s="112"/>
       <c r="Y358" s="112"/>
     </row>
-    <row r="359" spans="2:25" customFormat="1" ht="16">
+    <row r="359" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="102"/>
       <c r="C359" s="112"/>
       <c r="D359" s="112"/>
@@ -14108,7 +13995,7 @@
       <c r="X359" s="112"/>
       <c r="Y359" s="112"/>
     </row>
-    <row r="360" spans="2:25" customFormat="1" ht="16">
+    <row r="360" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="102"/>
       <c r="C360" s="112"/>
       <c r="D360" s="112"/>
@@ -14134,7 +14021,7 @@
       <c r="X360" s="112"/>
       <c r="Y360" s="112"/>
     </row>
-    <row r="361" spans="2:25" customFormat="1" ht="16">
+    <row r="361" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="102"/>
       <c r="C361" s="112"/>
       <c r="D361" s="112"/>
@@ -14160,7 +14047,7 @@
       <c r="X361" s="112"/>
       <c r="Y361" s="112"/>
     </row>
-    <row r="362" spans="2:25" customFormat="1" ht="16">
+    <row r="362" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B362" s="102"/>
       <c r="C362" s="112"/>
       <c r="D362" s="112"/>
@@ -14186,7 +14073,7 @@
       <c r="X362" s="112"/>
       <c r="Y362" s="112"/>
     </row>
-    <row r="363" spans="2:25" customFormat="1" ht="16">
+    <row r="363" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="102"/>
       <c r="C363" s="112"/>
       <c r="D363" s="112"/>
@@ -14212,7 +14099,7 @@
       <c r="X363" s="112"/>
       <c r="Y363" s="112"/>
     </row>
-    <row r="364" spans="2:25" customFormat="1" ht="16">
+    <row r="364" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="102"/>
       <c r="C364" s="112"/>
       <c r="D364" s="112"/>
@@ -14238,7 +14125,7 @@
       <c r="X364" s="112"/>
       <c r="Y364" s="112"/>
     </row>
-    <row r="365" spans="2:25" customFormat="1" ht="16">
+    <row r="365" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="102"/>
       <c r="C365" s="112"/>
       <c r="D365" s="112"/>
@@ -14264,106 +14151,106 @@
       <c r="X365" s="112"/>
       <c r="Y365" s="112"/>
     </row>
-    <row r="366" spans="2:25" customFormat="1" ht="16">
+    <row r="366" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="102"/>
     </row>
-    <row r="367" spans="2:25" customFormat="1" ht="16">
+    <row r="367" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="102"/>
     </row>
-    <row r="368" spans="2:25" customFormat="1" ht="16">
+    <row r="368" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B368" s="102"/>
     </row>
-    <row r="369" spans="2:2" customFormat="1" ht="16">
+    <row r="369" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="102"/>
     </row>
-    <row r="370" spans="2:2" customFormat="1" ht="16">
+    <row r="370" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="102"/>
     </row>
-    <row r="371" spans="2:2" customFormat="1" ht="16">
+    <row r="371" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="102"/>
     </row>
-    <row r="372" spans="2:2" customFormat="1" ht="16">
+    <row r="372" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="102"/>
     </row>
-    <row r="373" spans="2:2" customFormat="1" ht="16">
+    <row r="373" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="102"/>
     </row>
-    <row r="374" spans="2:2" customFormat="1" ht="16">
+    <row r="374" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="102"/>
     </row>
-    <row r="375" spans="2:2" customFormat="1" ht="16">
+    <row r="375" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="102"/>
     </row>
-    <row r="376" spans="2:2" customFormat="1" ht="16">
+    <row r="376" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="102"/>
     </row>
-    <row r="377" spans="2:2" customFormat="1" ht="16">
+    <row r="377" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="102"/>
     </row>
-    <row r="378" spans="2:2" customFormat="1" ht="16">
+    <row r="378" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="102"/>
     </row>
-    <row r="379" spans="2:2" customFormat="1" ht="16">
+    <row r="379" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="102"/>
     </row>
-    <row r="380" spans="2:2" customFormat="1" ht="16">
+    <row r="380" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B380" s="102"/>
     </row>
-    <row r="381" spans="2:2" customFormat="1" ht="16">
+    <row r="381" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="102"/>
     </row>
-    <row r="382" spans="2:2" customFormat="1" ht="16">
+    <row r="382" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="102"/>
     </row>
-    <row r="383" spans="2:2" customFormat="1" ht="16">
+    <row r="383" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B383" s="102"/>
     </row>
-    <row r="384" spans="2:2" customFormat="1" ht="16">
+    <row r="384" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B384" s="102"/>
     </row>
-    <row r="385" spans="2:25" customFormat="1" ht="16">
+    <row r="385" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="102"/>
     </row>
-    <row r="386" spans="2:25" customFormat="1" ht="16">
+    <row r="386" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B386" s="102"/>
     </row>
-    <row r="387" spans="2:25" customFormat="1" ht="16">
+    <row r="387" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B387" s="102"/>
     </row>
-    <row r="388" spans="2:25" customFormat="1" ht="16">
+    <row r="388" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B388" s="102"/>
     </row>
-    <row r="389" spans="2:25" customFormat="1" ht="16">
+    <row r="389" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B389" s="102"/>
     </row>
-    <row r="390" spans="2:25" customFormat="1" ht="16">
+    <row r="390" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B390" s="102"/>
     </row>
-    <row r="391" spans="2:25" customFormat="1" ht="16">
+    <row r="391" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B391" s="102"/>
     </row>
-    <row r="392" spans="2:25" customFormat="1" ht="16">
+    <row r="392" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B392" s="102"/>
     </row>
-    <row r="393" spans="2:25" customFormat="1" ht="16">
+    <row r="393" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="102"/>
     </row>
-    <row r="394" spans="2:25" customFormat="1" ht="16">
+    <row r="394" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="102"/>
     </row>
-    <row r="395" spans="2:25" customFormat="1" ht="16">
+    <row r="395" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="102"/>
     </row>
-    <row r="396" spans="2:25" customFormat="1" ht="16">
+    <row r="396" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="102"/>
     </row>
-    <row r="397" spans="2:25" customFormat="1" ht="16">
+    <row r="397" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="102"/>
     </row>
-    <row r="398" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="398" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B398" s="102"/>
     </row>
-    <row r="399" spans="2:25" s="24" customFormat="1">
+    <row r="399" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="105"/>
       <c r="C399" s="105" t="s">
         <v>24</v>
@@ -14391,7 +14278,7 @@
       <c r="T399" s="105"/>
       <c r="U399" s="105"/>
     </row>
-    <row r="400" spans="2:25" customFormat="1" ht="16">
+    <row r="400" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="102"/>
       <c r="C400" s="112"/>
       <c r="D400" s="112"/>
@@ -14417,7 +14304,7 @@
       <c r="X400" s="112"/>
       <c r="Y400" s="112"/>
     </row>
-    <row r="401" spans="2:25" customFormat="1" ht="16">
+    <row r="401" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="102"/>
       <c r="C401" s="117" t="s">
         <v>62</v>
@@ -14445,7 +14332,7 @@
       <c r="X401" s="112"/>
       <c r="Y401" s="112"/>
     </row>
-    <row r="402" spans="2:25" customFormat="1" ht="16">
+    <row r="402" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="102"/>
       <c r="C402" s="101"/>
       <c r="D402" s="112"/>
@@ -14471,7 +14358,7 @@
       <c r="X402" s="112"/>
       <c r="Y402" s="112"/>
     </row>
-    <row r="403" spans="2:25" customFormat="1" ht="16">
+    <row r="403" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="102"/>
       <c r="C403" s="112"/>
       <c r="D403">
@@ -14499,7 +14386,7 @@
       <c r="X403" s="112"/>
       <c r="Y403" s="112"/>
     </row>
-    <row r="404" spans="2:25" customFormat="1" ht="16">
+    <row r="404" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="102"/>
       <c r="C404" s="112"/>
       <c r="D404" s="112"/>
@@ -14525,7 +14412,7 @@
       <c r="X404" s="112"/>
       <c r="Y404" s="112"/>
     </row>
-    <row r="405" spans="2:25" customFormat="1" ht="16">
+    <row r="405" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B405" s="102"/>
       <c r="C405" s="112"/>
       <c r="D405" s="112"/>
@@ -14550,7 +14437,7 @@
       <c r="X405" s="112"/>
       <c r="Y405" s="112"/>
     </row>
-    <row r="406" spans="2:25" customFormat="1" ht="16">
+    <row r="406" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="102"/>
       <c r="C406" s="112"/>
       <c r="D406" s="112"/>
@@ -14575,7 +14462,7 @@
       <c r="X406" s="112"/>
       <c r="Y406" s="112"/>
     </row>
-    <row r="407" spans="2:25" customFormat="1" ht="16">
+    <row r="407" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="102"/>
       <c r="C407" s="112"/>
       <c r="D407" s="112"/>
@@ -14599,7 +14486,7 @@
       <c r="X407" s="112"/>
       <c r="Y407" s="112"/>
     </row>
-    <row r="408" spans="2:25" customFormat="1" ht="16">
+    <row r="408" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="102"/>
       <c r="C408" s="112"/>
       <c r="D408" s="112"/>
@@ -14624,7 +14511,7 @@
       <c r="X408" s="112"/>
       <c r="Y408" s="112"/>
     </row>
-    <row r="409" spans="2:25" customFormat="1" ht="16">
+    <row r="409" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="102"/>
       <c r="C409" s="112"/>
       <c r="D409" s="112"/>
@@ -14650,7 +14537,7 @@
       <c r="X409" s="112"/>
       <c r="Y409" s="112"/>
     </row>
-    <row r="410" spans="2:25" customFormat="1" ht="16">
+    <row r="410" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="102"/>
       <c r="C410" s="112"/>
       <c r="D410" s="112"/>
@@ -14676,7 +14563,7 @@
       <c r="X410" s="112"/>
       <c r="Y410" s="112"/>
     </row>
-    <row r="411" spans="2:25" customFormat="1" ht="16">
+    <row r="411" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="102"/>
       <c r="C411" s="112"/>
       <c r="D411" s="112"/>
@@ -14702,7 +14589,7 @@
       <c r="X411" s="112"/>
       <c r="Y411" s="112"/>
     </row>
-    <row r="412" spans="2:25" customFormat="1" ht="16">
+    <row r="412" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="102"/>
       <c r="C412" s="112"/>
       <c r="D412" s="112"/>
@@ -14728,7 +14615,7 @@
       <c r="X412" s="112"/>
       <c r="Y412" s="112"/>
     </row>
-    <row r="413" spans="2:25" customFormat="1" ht="16">
+    <row r="413" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="102"/>
       <c r="C413" s="112"/>
       <c r="D413" s="112"/>
@@ -14754,7 +14641,7 @@
       <c r="X413" s="112"/>
       <c r="Y413" s="112"/>
     </row>
-    <row r="414" spans="2:25" customFormat="1" ht="16">
+    <row r="414" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="102"/>
       <c r="C414" s="112"/>
       <c r="D414" s="112"/>
@@ -14780,7 +14667,7 @@
       <c r="X414" s="112"/>
       <c r="Y414" s="112"/>
     </row>
-    <row r="415" spans="2:25" customFormat="1" ht="16">
+    <row r="415" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="102"/>
       <c r="C415" s="112"/>
       <c r="D415" s="112"/>
@@ -14806,7 +14693,7 @@
       <c r="X415" s="112"/>
       <c r="Y415" s="112"/>
     </row>
-    <row r="416" spans="2:25" customFormat="1" ht="16">
+    <row r="416" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="102"/>
       <c r="C416" s="112"/>
       <c r="D416" s="112"/>
@@ -14832,7 +14719,7 @@
       <c r="X416" s="112"/>
       <c r="Y416" s="112"/>
     </row>
-    <row r="417" spans="2:25" customFormat="1" ht="16">
+    <row r="417" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="102"/>
       <c r="C417" s="112"/>
       <c r="D417" s="112"/>
@@ -14858,7 +14745,7 @@
       <c r="X417" s="112"/>
       <c r="Y417" s="112"/>
     </row>
-    <row r="418" spans="2:25" customFormat="1" ht="16">
+    <row r="418" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="102"/>
       <c r="C418" s="112"/>
       <c r="D418" s="112"/>
@@ -14884,7 +14771,7 @@
       <c r="X418" s="112"/>
       <c r="Y418" s="112"/>
     </row>
-    <row r="419" spans="2:25" customFormat="1" ht="16">
+    <row r="419" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="102"/>
       <c r="C419" s="112"/>
       <c r="D419" s="112"/>
@@ -14910,7 +14797,7 @@
       <c r="X419" s="112"/>
       <c r="Y419" s="112"/>
     </row>
-    <row r="420" spans="2:25" customFormat="1" ht="16">
+    <row r="420" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="102"/>
       <c r="C420" s="112"/>
       <c r="D420" s="112"/>
@@ -14936,7 +14823,7 @@
       <c r="X420" s="112"/>
       <c r="Y420" s="112"/>
     </row>
-    <row r="421" spans="2:25" customFormat="1" ht="16">
+    <row r="421" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="102"/>
       <c r="C421" s="112"/>
       <c r="D421" s="112"/>
@@ -14962,7 +14849,7 @@
       <c r="X421" s="112"/>
       <c r="Y421" s="112"/>
     </row>
-    <row r="422" spans="2:25" customFormat="1" ht="16">
+    <row r="422" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="102"/>
       <c r="C422" s="112"/>
       <c r="D422" s="112"/>
@@ -14988,7 +14875,7 @@
       <c r="X422" s="112"/>
       <c r="Y422" s="112"/>
     </row>
-    <row r="423" spans="2:25" customFormat="1" ht="16">
+    <row r="423" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B423" s="102"/>
       <c r="C423" s="112"/>
       <c r="D423" s="112"/>
@@ -15014,7 +14901,7 @@
       <c r="X423" s="112"/>
       <c r="Y423" s="112"/>
     </row>
-    <row r="424" spans="2:25" customFormat="1" ht="16">
+    <row r="424" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="102"/>
       <c r="C424" s="112"/>
       <c r="D424" s="112"/>
@@ -15040,7 +14927,7 @@
       <c r="X424" s="112"/>
       <c r="Y424" s="112"/>
     </row>
-    <row r="425" spans="2:25" customFormat="1" ht="16">
+    <row r="425" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B425" s="102"/>
       <c r="C425" s="112"/>
       <c r="D425" s="112"/>
@@ -15066,352 +14953,352 @@
       <c r="X425" s="112"/>
       <c r="Y425" s="112"/>
     </row>
-    <row r="426" spans="2:25" customFormat="1" ht="16">
+    <row r="426" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="102"/>
     </row>
-    <row r="427" spans="2:25" customFormat="1" ht="16">
+    <row r="427" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B427" s="102"/>
     </row>
-    <row r="428" spans="2:25" customFormat="1" ht="16">
+    <row r="428" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B428" s="102"/>
     </row>
-    <row r="429" spans="2:25" customFormat="1" ht="16">
+    <row r="429" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B429" s="102"/>
     </row>
-    <row r="430" spans="2:25" customFormat="1" ht="16">
+    <row r="430" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B430" s="102"/>
       <c r="D430">
         <v>111</v>
       </c>
     </row>
-    <row r="431" spans="2:25" customFormat="1" ht="16">
+    <row r="431" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B431" s="102"/>
     </row>
-    <row r="432" spans="2:25" customFormat="1" ht="16">
+    <row r="432" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B432" s="102"/>
     </row>
-    <row r="433" spans="2:2" customFormat="1" ht="16">
+    <row r="433" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B433" s="102"/>
     </row>
-    <row r="434" spans="2:2" customFormat="1" ht="16">
+    <row r="434" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B434" s="102"/>
     </row>
-    <row r="435" spans="2:2" customFormat="1" ht="16">
+    <row r="435" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B435" s="102"/>
     </row>
-    <row r="436" spans="2:2" customFormat="1" ht="16">
+    <row r="436" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B436" s="102"/>
     </row>
-    <row r="437" spans="2:2" customFormat="1" ht="16">
+    <row r="437" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B437" s="102"/>
     </row>
-    <row r="438" spans="2:2" customFormat="1" ht="16">
+    <row r="438" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B438" s="102"/>
     </row>
-    <row r="439" spans="2:2" customFormat="1" ht="16">
+    <row r="439" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B439" s="102"/>
     </row>
-    <row r="440" spans="2:2" customFormat="1" ht="16">
+    <row r="440" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B440" s="102"/>
     </row>
-    <row r="441" spans="2:2" customFormat="1" ht="16">
+    <row r="441" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B441" s="102"/>
     </row>
-    <row r="442" spans="2:2" customFormat="1" ht="16">
+    <row r="442" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B442" s="102"/>
     </row>
-    <row r="443" spans="2:2" customFormat="1" ht="16">
+    <row r="443" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B443" s="102"/>
     </row>
-    <row r="444" spans="2:2" customFormat="1" ht="16">
+    <row r="444" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B444" s="102"/>
     </row>
-    <row r="445" spans="2:2" customFormat="1" ht="16">
+    <row r="445" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B445" s="102"/>
     </row>
-    <row r="446" spans="2:2" customFormat="1" ht="16">
+    <row r="446" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B446" s="102"/>
     </row>
-    <row r="447" spans="2:2" customFormat="1" ht="16">
+    <row r="447" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B447" s="102"/>
     </row>
-    <row r="448" spans="2:2" customFormat="1" ht="16">
+    <row r="448" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B448" s="102"/>
     </row>
-    <row r="449" spans="2:4" customFormat="1" ht="16">
+    <row r="449" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B449" s="102"/>
     </row>
-    <row r="450" spans="2:4" customFormat="1" ht="16">
+    <row r="450" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B450" s="102"/>
     </row>
-    <row r="451" spans="2:4" customFormat="1" ht="16">
+    <row r="451" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B451" s="102"/>
     </row>
-    <row r="452" spans="2:4" customFormat="1" ht="16">
+    <row r="452" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B452" s="102"/>
     </row>
-    <row r="453" spans="2:4" customFormat="1" ht="16">
+    <row r="453" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B453" s="102"/>
       <c r="D453">
         <v>112</v>
       </c>
     </row>
-    <row r="454" spans="2:4" customFormat="1" ht="16">
+    <row r="454" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B454" s="102"/>
     </row>
-    <row r="455" spans="2:4" customFormat="1" ht="16">
+    <row r="455" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B455" s="102"/>
     </row>
-    <row r="456" spans="2:4" customFormat="1" ht="16">
+    <row r="456" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B456" s="102"/>
     </row>
-    <row r="457" spans="2:4" customFormat="1" ht="16">
+    <row r="457" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B457" s="102"/>
     </row>
-    <row r="458" spans="2:4" customFormat="1" ht="16">
+    <row r="458" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B458" s="102"/>
     </row>
-    <row r="459" spans="2:4" customFormat="1" ht="16">
+    <row r="459" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B459" s="102"/>
     </row>
-    <row r="460" spans="2:4" customFormat="1" ht="16">
+    <row r="460" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B460" s="102"/>
     </row>
-    <row r="461" spans="2:4" customFormat="1" ht="16">
+    <row r="461" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B461" s="102"/>
     </row>
-    <row r="462" spans="2:4" customFormat="1" ht="16">
+    <row r="462" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B462" s="102"/>
     </row>
-    <row r="463" spans="2:4" customFormat="1" ht="16">
+    <row r="463" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B463" s="102"/>
     </row>
-    <row r="464" spans="2:4" customFormat="1" ht="16">
+    <row r="464" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B464" s="102"/>
     </row>
-    <row r="465" spans="2:4" customFormat="1" ht="16">
+    <row r="465" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B465" s="102"/>
     </row>
-    <row r="466" spans="2:4" customFormat="1" ht="16">
+    <row r="466" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B466" s="102"/>
     </row>
-    <row r="467" spans="2:4" customFormat="1" ht="16">
+    <row r="467" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B467" s="102"/>
     </row>
-    <row r="468" spans="2:4" customFormat="1" ht="16">
+    <row r="468" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B468" s="102"/>
     </row>
-    <row r="469" spans="2:4" customFormat="1" ht="16">
+    <row r="469" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B469" s="102"/>
     </row>
-    <row r="470" spans="2:4" customFormat="1" ht="16">
+    <row r="470" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B470" s="102"/>
     </row>
-    <row r="471" spans="2:4" customFormat="1" ht="16">
+    <row r="471" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B471" s="102"/>
     </row>
-    <row r="472" spans="2:4" customFormat="1" ht="16">
+    <row r="472" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B472" s="102"/>
     </row>
-    <row r="473" spans="2:4" customFormat="1" ht="16">
+    <row r="473" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B473" s="102"/>
     </row>
-    <row r="474" spans="2:4" customFormat="1" ht="16">
+    <row r="474" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B474" s="102"/>
     </row>
-    <row r="475" spans="2:4" customFormat="1" ht="16">
+    <row r="475" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B475" s="102"/>
     </row>
-    <row r="476" spans="2:4" customFormat="1" ht="16">
+    <row r="476" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B476" s="102"/>
     </row>
-    <row r="477" spans="2:4" customFormat="1" ht="16">
+    <row r="477" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B477" s="102"/>
       <c r="D477">
         <v>113</v>
       </c>
     </row>
-    <row r="478" spans="2:4" customFormat="1" ht="16">
+    <row r="478" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B478" s="102"/>
     </row>
-    <row r="479" spans="2:4" customFormat="1" ht="16">
+    <row r="479" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B479" s="102"/>
     </row>
-    <row r="480" spans="2:4" customFormat="1" ht="16">
+    <row r="480" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B480" s="102"/>
     </row>
-    <row r="481" spans="2:2" customFormat="1" ht="16">
+    <row r="481" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B481" s="102"/>
     </row>
-    <row r="482" spans="2:2" customFormat="1" ht="16">
+    <row r="482" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B482" s="102"/>
     </row>
-    <row r="483" spans="2:2" customFormat="1" ht="16">
+    <row r="483" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B483" s="102"/>
     </row>
-    <row r="484" spans="2:2" customFormat="1" ht="16">
+    <row r="484" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B484" s="102"/>
     </row>
-    <row r="485" spans="2:2" customFormat="1" ht="16">
+    <row r="485" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B485" s="102"/>
     </row>
-    <row r="486" spans="2:2" customFormat="1" ht="16">
+    <row r="486" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B486" s="102"/>
     </row>
-    <row r="487" spans="2:2" customFormat="1" ht="16">
+    <row r="487" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B487" s="102"/>
     </row>
-    <row r="488" spans="2:2" customFormat="1" ht="16">
+    <row r="488" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B488" s="102"/>
     </row>
-    <row r="489" spans="2:2" customFormat="1" ht="16">
+    <row r="489" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B489" s="102"/>
     </row>
-    <row r="490" spans="2:2" customFormat="1" ht="16">
+    <row r="490" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B490" s="102"/>
     </row>
-    <row r="491" spans="2:2" customFormat="1" ht="16">
+    <row r="491" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B491" s="102"/>
     </row>
-    <row r="492" spans="2:2" customFormat="1" ht="16">
+    <row r="492" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B492" s="102"/>
     </row>
-    <row r="493" spans="2:2" customFormat="1" ht="16">
+    <row r="493" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B493" s="102"/>
     </row>
-    <row r="494" spans="2:2" customFormat="1" ht="16">
+    <row r="494" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B494" s="102"/>
     </row>
-    <row r="495" spans="2:2" customFormat="1" ht="16">
+    <row r="495" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B495" s="102"/>
     </row>
-    <row r="496" spans="2:2" customFormat="1" ht="16">
+    <row r="496" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B496" s="102"/>
     </row>
-    <row r="497" spans="2:4" customFormat="1" ht="16">
+    <row r="497" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B497" s="102"/>
     </row>
-    <row r="498" spans="2:4" customFormat="1" ht="16">
+    <row r="498" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B498" s="102"/>
     </row>
-    <row r="499" spans="2:4" customFormat="1" ht="16">
+    <row r="499" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B499" s="102"/>
     </row>
-    <row r="500" spans="2:4" customFormat="1" ht="16">
+    <row r="500" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B500" s="102"/>
     </row>
-    <row r="501" spans="2:4" customFormat="1" ht="16">
+    <row r="501" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B501" s="102"/>
     </row>
-    <row r="502" spans="2:4" customFormat="1" ht="16">
+    <row r="502" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B502" s="102"/>
     </row>
-    <row r="503" spans="2:4" customFormat="1" ht="16">
+    <row r="503" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B503" s="102"/>
       <c r="D503">
         <v>114</v>
       </c>
     </row>
-    <row r="504" spans="2:4" customFormat="1" ht="16">
+    <row r="504" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B504" s="102"/>
     </row>
-    <row r="505" spans="2:4" customFormat="1" ht="16">
+    <row r="505" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B505" s="102"/>
     </row>
-    <row r="506" spans="2:4" customFormat="1" ht="16">
+    <row r="506" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B506" s="102"/>
     </row>
-    <row r="507" spans="2:4" customFormat="1" ht="16">
+    <row r="507" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B507" s="102"/>
     </row>
-    <row r="508" spans="2:4" customFormat="1" ht="16">
+    <row r="508" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B508" s="102"/>
     </row>
-    <row r="509" spans="2:4" customFormat="1" ht="16">
+    <row r="509" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B509" s="102"/>
     </row>
-    <row r="510" spans="2:4" customFormat="1" ht="16">
+    <row r="510" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B510" s="102"/>
     </row>
-    <row r="511" spans="2:4" customFormat="1" ht="16">
+    <row r="511" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B511" s="102"/>
     </row>
-    <row r="512" spans="2:4" customFormat="1" ht="16">
+    <row r="512" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B512" s="102"/>
     </row>
-    <row r="513" spans="2:7" customFormat="1" ht="16">
+    <row r="513" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B513" s="102"/>
     </row>
-    <row r="514" spans="2:7" customFormat="1" ht="16">
+    <row r="514" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B514" s="102"/>
       <c r="G514" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="515" spans="2:7" customFormat="1" ht="16">
+    <row r="515" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B515" s="102"/>
       <c r="G515" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="516" spans="2:7" customFormat="1" ht="16">
+    <row r="516" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B516" s="102"/>
       <c r="G516" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="517" spans="2:7" customFormat="1" ht="16">
+    <row r="517" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B517" s="102"/>
     </row>
-    <row r="518" spans="2:7" customFormat="1" ht="16">
+    <row r="518" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B518" s="102"/>
     </row>
-    <row r="519" spans="2:7" customFormat="1" ht="16">
+    <row r="519" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B519" s="102"/>
     </row>
-    <row r="520" spans="2:7" customFormat="1" ht="16">
+    <row r="520" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B520" s="102"/>
     </row>
-    <row r="521" spans="2:7" customFormat="1" ht="16">
+    <row r="521" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B521" s="102"/>
     </row>
-    <row r="522" spans="2:7" customFormat="1" ht="16">
+    <row r="522" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B522" s="102"/>
     </row>
-    <row r="523" spans="2:7" customFormat="1" ht="16">
+    <row r="523" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B523" s="102"/>
     </row>
-    <row r="524" spans="2:7" customFormat="1" ht="16">
+    <row r="524" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B524" s="102"/>
     </row>
-    <row r="525" spans="2:7" customFormat="1" ht="16">
+    <row r="525" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B525" s="102"/>
     </row>
-    <row r="526" spans="2:7" customFormat="1" ht="16">
+    <row r="526" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B526" s="102"/>
     </row>
-    <row r="527" spans="2:7" customFormat="1" ht="16">
+    <row r="527" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B527" s="102"/>
     </row>
-    <row r="528" spans="2:7" customFormat="1" ht="16">
+    <row r="528" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B528" s="102"/>
     </row>
-    <row r="529" spans="2:35" customFormat="1" ht="16">
+    <row r="529" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B529" s="102"/>
     </row>
-    <row r="530" spans="2:35" customFormat="1" ht="16">
+    <row r="530" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B530" s="102"/>
     </row>
-    <row r="531" spans="2:35" customFormat="1" ht="16">
+    <row r="531" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B531" s="102"/>
     </row>
-    <row r="532" spans="2:35" customFormat="1" ht="16">
+    <row r="532" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B532" s="102"/>
     </row>
-    <row r="533" spans="2:35" customFormat="1" ht="16">
+    <row r="533" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B533" s="102"/>
     </row>
-    <row r="534" spans="2:35" s="162" customFormat="1" ht="16">
+    <row r="534" spans="2:35" s="162" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B534" s="163"/>
       <c r="C534" s="164"/>
       <c r="D534" s="164"/>
@@ -15454,10 +15341,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/biogas.carrier.xlsx
+++ b/carriers_source_analyses/biogas.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934BD143-1DFA-0C47-8502-44B952D0A5E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C866D39-7FD4-7040-A60A-876AA8485A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,6 +42,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -50,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="180">
   <si>
     <t>Source</t>
   </si>
@@ -176,12 +185,6 @@
   </si>
   <si>
     <t>Quintel assumption</t>
-  </si>
-  <si>
-    <t>Quintel definition</t>
-  </si>
-  <si>
-    <t>This is a definition</t>
   </si>
   <si>
     <t>kg/MJ</t>
@@ -624,7 +627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
@@ -633,7 +636,6 @@
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1563,7 +1565,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1787,7 +1789,6 @@
     <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1798,6 +1799,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1825,13 +1833,6 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="335">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
@@ -2168,7 +2169,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="321" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="321" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3363,13 +3364,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1">
@@ -3392,10 +3393,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3432,13 +3433,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="153"/>
+      <c r="D9" s="152"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="154"/>
+      <c r="D10" s="153"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -3448,7 +3449,7 @@
       <c r="C11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="154"/>
+      <c r="D11" s="153"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
@@ -3456,7 +3457,7 @@
       <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="154"/>
+      <c r="D12" s="153"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
@@ -3464,7 +3465,7 @@
       <c r="C13" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="153"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -3472,13 +3473,13 @@
       <c r="C14" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="154"/>
+      <c r="D14" s="153"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
-      <c r="D15" s="154"/>
+      <c r="D15" s="153"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -3488,7 +3489,7 @@
       <c r="C16" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="153"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -3496,7 +3497,7 @@
       <c r="C17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="153"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -3504,7 +3505,7 @@
       <c r="C18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="153"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -3512,7 +3513,7 @@
       <c r="C19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="154"/>
+      <c r="D19" s="153"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -3520,7 +3521,7 @@
       <c r="C20" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="154"/>
+      <c r="D20" s="153"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -3528,7 +3529,7 @@
       <c r="C21" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="153"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -3536,19 +3537,19 @@
       <c r="C22" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="154"/>
+      <c r="D22" s="153"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="154"/>
+      <c r="D23" s="153"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="155"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3561,25 +3562,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -3589,28 +3590,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="162" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
+      <c r="B2" s="168" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="165"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10" ht="60" customHeight="1">
-      <c r="B4" s="168"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -3662,8 +3663,8 @@
     </row>
     <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="23"/>
-      <c r="C9" s="152" t="s">
-        <v>178</v>
+      <c r="C9" s="151" t="s">
+        <v>176</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -3698,75 +3699,33 @@
     <row r="11" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="23"/>
       <c r="C11" s="103" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="151">
-        <f>'Research data'!G7</f>
-        <v>1.679782273069216E-2</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="43">
+        <f>'Research data'!G8</f>
+        <v>27.500000000000004</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="103"/>
       <c r="H11" s="30"/>
       <c r="I11" s="118" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="43">
-        <f>'Research data'!G8</f>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
-      <c r="B13" s="23"/>
-      <c r="C13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="105">
-        <f>'Research data'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+    <row r="12" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3788,25 +3747,25 @@
       <selection activeCell="B10" sqref="B10:R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="66" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="66" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="66" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="66" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="66" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="66" customWidth="1"/>
     <col min="18" max="18" width="60" style="65" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="65"/>
+    <col min="19" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17" thickBot="1"/>
@@ -3844,22 +3803,22 @@
       </c>
       <c r="H3" s="96"/>
       <c r="I3" s="63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P3" s="63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="63"/>
       <c r="R3" s="1" t="s">
@@ -3888,7 +3847,7 @@
     <row r="5" spans="1:18" ht="17" thickBot="1">
       <c r="B5" s="71"/>
       <c r="C5" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -3947,7 +3906,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="117">
         <f>K7</f>
@@ -3966,23 +3925,23 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="158" t="s">
-        <v>179</v>
+      <c r="R7" s="157" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="43">
         <f>I8</f>
@@ -4002,7 +3961,7 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="149" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1">
@@ -4017,7 +3976,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="43">
         <v>0</v>
@@ -4035,24 +3994,24 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" ht="17" thickBot="1">
-      <c r="A10" s="173"/>
-      <c r="B10" s="174"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="176"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="177"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="167"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4071,19 +4030,19 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="45"/>
+    <col min="7" max="7" width="10.28515625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -4173,27 +4132,27 @@
     <row r="7" spans="2:12">
       <c r="B7" s="50"/>
       <c r="C7" s="119" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="150" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="150" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L7" s="115"/>
     </row>
@@ -4204,20 +4163,20 @@
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J8" s="54"/>
       <c r="K8" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L8" s="64"/>
     </row>
@@ -4241,7 +4200,7 @@
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="114"/>
       <c r="G10" s="60"/>
@@ -4249,7 +4208,7 @@
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
       <c r="K10" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L10" s="115"/>
     </row>
@@ -4269,12 +4228,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="98" customWidth="1"/>
     <col min="2" max="2" width="5" style="98" customWidth="1"/>
     <col min="3" max="5" width="7" style="98"/>
-    <col min="6" max="6" width="10.83203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="98" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="98"/>
-    <col min="8" max="8" width="8.83203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="98"/>
   </cols>
   <sheetData>
@@ -4285,7 +4244,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="102"/>
       <c r="F2" s="102" t="s">
@@ -4357,7 +4316,7 @@
     <row r="5" spans="2:26" customFormat="1">
       <c r="B5" s="99"/>
       <c r="C5" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="109"/>
       <c r="E5" s="109"/>
@@ -4414,11 +4373,11 @@
       <c r="B7" s="99"/>
       <c r="C7" s="109"/>
       <c r="D7" s="109" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="109"/>
       <c r="F7" s="109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="109"/>
       <c r="H7" s="109"/>
@@ -4447,7 +4406,7 @@
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
       <c r="F8" s="109" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="109"/>
       <c r="H8" s="109"/>
@@ -4825,7 +4784,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="109"/>
       <c r="D22" s="109" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="109"/>
       <c r="F22" s="109"/>
@@ -4856,7 +4815,7 @@
       <c r="D23" s="109"/>
       <c r="E23" s="109"/>
       <c r="F23" s="109" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G23" s="109"/>
       <c r="H23" s="120">
@@ -4887,7 +4846,7 @@
       <c r="D24" s="109"/>
       <c r="E24" s="109"/>
       <c r="F24" s="109" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G24" s="109"/>
       <c r="H24" s="121">
@@ -4918,14 +4877,14 @@
       <c r="D25" s="109"/>
       <c r="E25" s="109"/>
       <c r="F25" s="109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G25" s="109"/>
       <c r="H25" s="109">
         <v>47.4</v>
       </c>
       <c r="I25" s="109" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J25" s="109"/>
       <c r="K25" s="109"/>
@@ -4951,14 +4910,14 @@
       <c r="D26" s="109"/>
       <c r="E26" s="109"/>
       <c r="F26" s="109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G26" s="109"/>
       <c r="H26" s="109">
         <v>14.2</v>
       </c>
       <c r="I26" s="109" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J26" s="109"/>
       <c r="K26" s="109"/>
@@ -4984,7 +4943,7 @@
       <c r="D27" s="109"/>
       <c r="E27" s="109"/>
       <c r="F27" s="109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G27" s="109"/>
       <c r="H27" s="122">
@@ -4992,7 +4951,7 @@
         <v>13.632</v>
       </c>
       <c r="I27" s="109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J27" s="109"/>
       <c r="K27" s="109"/>
@@ -5018,7 +4977,7 @@
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
       <c r="F28" s="145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G28" s="145"/>
       <c r="H28" s="147">
@@ -5026,7 +4985,7 @@
         <v>1363.2</v>
       </c>
       <c r="I28" s="145" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J28" s="109"/>
       <c r="K28" s="109"/>
@@ -5052,14 +5011,14 @@
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
       <c r="F29" s="109" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G29" s="109"/>
       <c r="H29" s="109">
         <v>575</v>
       </c>
       <c r="I29" s="123" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J29" s="109"/>
       <c r="K29" s="109"/>
@@ -5085,7 +5044,7 @@
       <c r="D30" s="109"/>
       <c r="E30" s="109"/>
       <c r="F30" s="109" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G30" s="109"/>
       <c r="H30" s="121">
@@ -5116,7 +5075,7 @@
       <c r="D31" s="109"/>
       <c r="E31" s="109"/>
       <c r="F31" s="109" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="109"/>
       <c r="H31" s="109">
@@ -5124,7 +5083,7 @@
         <v>316.25</v>
       </c>
       <c r="I31" s="123" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J31" s="109"/>
       <c r="K31" s="109"/>
@@ -5150,14 +5109,14 @@
       <c r="D32" s="109"/>
       <c r="E32" s="109"/>
       <c r="F32" s="124" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" s="124"/>
       <c r="H32" s="109">
         <v>55.5</v>
       </c>
       <c r="I32" s="123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J32" s="109"/>
       <c r="K32" s="109"/>
@@ -5183,7 +5142,7 @@
       <c r="D33" s="109"/>
       <c r="E33" s="109"/>
       <c r="F33" s="124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G33" s="124"/>
       <c r="H33" s="109">
@@ -5191,7 +5150,7 @@
         <v>50</v>
       </c>
       <c r="I33" s="123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J33" s="109"/>
       <c r="K33" s="109"/>
@@ -5217,14 +5176,14 @@
       <c r="D34" s="109"/>
       <c r="E34" s="109"/>
       <c r="F34" s="124" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G34" s="124"/>
       <c r="H34" s="109">
         <v>7.1599999999999995E-4</v>
       </c>
       <c r="I34" s="123" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J34" s="109"/>
       <c r="K34" s="109"/>
@@ -5250,7 +5209,7 @@
       <c r="D35" s="109"/>
       <c r="E35" s="109"/>
       <c r="F35" s="124" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35" s="124"/>
       <c r="H35" s="109">
@@ -5258,7 +5217,7 @@
         <v>39.737999999999992</v>
       </c>
       <c r="I35" s="123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J35" s="109"/>
       <c r="K35" s="109"/>
@@ -5284,7 +5243,7 @@
       <c r="D36" s="109"/>
       <c r="E36" s="109"/>
       <c r="F36" s="124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G36" s="124"/>
       <c r="H36" s="109">
@@ -5292,7 +5251,7 @@
         <v>35.799999999999997</v>
       </c>
       <c r="I36" s="123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J36" s="109"/>
       <c r="K36" s="109"/>
@@ -5318,7 +5277,7 @@
       <c r="D37" s="109"/>
       <c r="E37" s="109"/>
       <c r="F37" s="109" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G37" s="109"/>
       <c r="H37" s="109">
@@ -5326,7 +5285,7 @@
         <v>11.32175</v>
       </c>
       <c r="I37" s="123" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J37" s="109"/>
       <c r="K37" s="109"/>
@@ -5352,7 +5311,7 @@
       <c r="D38" s="109"/>
       <c r="E38" s="109"/>
       <c r="F38" s="109" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38" s="109"/>
       <c r="H38" s="109">
@@ -5360,7 +5319,7 @@
         <v>11.32175</v>
       </c>
       <c r="I38" s="123" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J38" s="109"/>
       <c r="K38" s="109"/>
@@ -5386,7 +5345,7 @@
       <c r="D39" s="109"/>
       <c r="E39" s="109"/>
       <c r="F39" s="145" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G39" s="146"/>
       <c r="H39" s="148">
@@ -5394,7 +5353,7 @@
         <v>15433809.6</v>
       </c>
       <c r="I39" s="123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J39" s="109"/>
       <c r="K39" s="109"/>
@@ -6154,7 +6113,7 @@
       <c r="B67" s="99"/>
       <c r="C67" s="109"/>
       <c r="D67" s="109" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E67" s="109"/>
       <c r="F67" s="109"/>
@@ -6185,14 +6144,14 @@
       <c r="D68" s="125"/>
       <c r="E68" s="125"/>
       <c r="F68" s="125" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G68" s="125"/>
       <c r="H68" s="126">
         <v>0.90800000000000003</v>
       </c>
       <c r="I68" s="127" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K68" s="125"/>
       <c r="L68" s="125"/>
@@ -6217,14 +6176,14 @@
       <c r="D69" s="125"/>
       <c r="E69" s="125"/>
       <c r="F69" s="129" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G69" s="129"/>
       <c r="H69" s="126">
         <v>7.8E-2</v>
       </c>
       <c r="I69" s="127" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K69" s="125"/>
       <c r="L69" s="125"/>
@@ -6249,14 +6208,14 @@
       <c r="D70" s="125"/>
       <c r="E70" s="125"/>
       <c r="F70" s="129" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G70" s="129"/>
       <c r="H70" s="126">
         <v>1.4E-2</v>
       </c>
       <c r="I70" s="127" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K70" s="125"/>
       <c r="L70" s="125"/>
@@ -6281,17 +6240,17 @@
       <c r="D71" s="125"/>
       <c r="E71" s="125"/>
       <c r="F71" s="130" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G71" s="130"/>
       <c r="H71" s="131">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I71" s="132" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K71" s="125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L71" s="125"/>
       <c r="M71" s="125"/>
@@ -6341,14 +6300,14 @@
       <c r="D73" s="125"/>
       <c r="E73" s="125"/>
       <c r="F73" s="125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G73" s="125"/>
       <c r="H73" s="126">
         <v>0.99099999999999999</v>
       </c>
       <c r="I73" s="127" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K73" s="125"/>
       <c r="L73" s="125"/>
@@ -6373,14 +6332,14 @@
       <c r="D74" s="125"/>
       <c r="E74" s="125"/>
       <c r="F74" s="129" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G74" s="129"/>
       <c r="H74" s="133">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I74" s="127" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K74" s="125"/>
       <c r="L74" s="125"/>
@@ -6431,17 +6390,17 @@
       <c r="D76" s="109"/>
       <c r="E76" s="109"/>
       <c r="F76" s="130" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G76" s="130"/>
       <c r="H76" s="135">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I76" s="132" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K76" s="125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -6465,17 +6424,17 @@
       <c r="D77" s="109"/>
       <c r="E77" s="109"/>
       <c r="F77" s="130" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G77" s="130"/>
       <c r="H77" s="136">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I77" s="132" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K77" s="125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -7874,7 +7833,7 @@
       <c r="B129" s="99"/>
       <c r="C129" s="109"/>
       <c r="D129" s="109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E129" s="109"/>
       <c r="F129" s="109"/>
@@ -7905,14 +7864,14 @@
       <c r="D130" s="109"/>
       <c r="E130" s="109"/>
       <c r="F130" s="112" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G130" s="112"/>
       <c r="H130" s="112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I130" s="112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J130" s="109"/>
       <c r="K130" s="109"/>
@@ -7938,7 +7897,7 @@
       <c r="D131" s="109"/>
       <c r="E131" s="109"/>
       <c r="F131" s="112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G131" s="112"/>
       <c r="H131" s="112"/>
@@ -7967,14 +7926,14 @@
       <c r="D132" s="109"/>
       <c r="E132" s="109"/>
       <c r="F132" s="137" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G132" s="137"/>
       <c r="H132" s="138">
         <v>1248457</v>
       </c>
       <c r="I132" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J132" s="109"/>
       <c r="K132" s="138"/>
@@ -8000,14 +7959,14 @@
       <c r="D133" s="109"/>
       <c r="E133" s="109"/>
       <c r="F133" s="137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G133" s="137"/>
       <c r="H133" s="138">
         <v>1564661</v>
       </c>
       <c r="I133" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J133" s="109"/>
       <c r="K133" s="138"/>
@@ -8033,14 +7992,14 @@
       <c r="D134" s="109"/>
       <c r="E134" s="109"/>
       <c r="F134" s="109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G134" s="109"/>
       <c r="H134" s="138">
         <v>79384</v>
       </c>
       <c r="I134" s="109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J134" s="109"/>
       <c r="K134" s="138"/>
@@ -8066,7 +8025,7 @@
       <c r="D135" s="109"/>
       <c r="E135" s="109"/>
       <c r="F135" s="109" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G135" s="109"/>
       <c r="H135" s="139">
@@ -8074,12 +8033,12 @@
         <v>17.718419328832006</v>
       </c>
       <c r="I135" s="109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J135" s="109"/>
       <c r="K135" s="139"/>
       <c r="L135" s="112" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M135" s="109"/>
       <c r="N135" s="109"/>
@@ -8129,7 +8088,7 @@
       <c r="D137" s="109"/>
       <c r="E137" s="109"/>
       <c r="F137" s="112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G137" s="112"/>
       <c r="H137" s="112"/>
@@ -8158,14 +8117,14 @@
       <c r="D138" s="109"/>
       <c r="E138" s="109"/>
       <c r="F138" s="137" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G138" s="137"/>
       <c r="H138" s="138">
         <v>1468130</v>
       </c>
       <c r="I138" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J138" s="109"/>
       <c r="K138" s="139"/>
@@ -8191,14 +8150,14 @@
       <c r="D139" s="109"/>
       <c r="E139" s="109"/>
       <c r="F139" s="137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G139" s="137"/>
       <c r="H139" s="138">
         <v>1777989</v>
       </c>
       <c r="I139" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J139" s="109"/>
       <c r="K139" s="139"/>
@@ -8224,14 +8183,14 @@
       <c r="D140" s="109"/>
       <c r="E140" s="109"/>
       <c r="F140" s="109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G140" s="109"/>
       <c r="H140" s="138">
         <v>79384</v>
       </c>
       <c r="I140" s="109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J140" s="109"/>
       <c r="K140" s="139"/>
@@ -8257,7 +8216,7 @@
       <c r="D141" s="109"/>
       <c r="E141" s="109"/>
       <c r="F141" s="109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G141" s="109"/>
       <c r="H141" s="138">
@@ -8265,7 +8224,7 @@
         <v>78669.543999999994</v>
       </c>
       <c r="I141" s="109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J141" s="109"/>
       <c r="K141" s="139"/>
@@ -8291,7 +8250,7 @@
       <c r="D142" s="109"/>
       <c r="E142" s="109"/>
       <c r="F142" s="109" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G142" s="109"/>
       <c r="H142" s="139">
@@ -8299,7 +8258,7 @@
         <v>20.631357670002512</v>
       </c>
       <c r="I142" s="109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J142" s="109"/>
       <c r="K142" s="139"/>
@@ -8352,7 +8311,7 @@
       <c r="D144" s="109"/>
       <c r="E144" s="109"/>
       <c r="F144" s="109" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G144" s="109"/>
       <c r="H144" s="109"/>
@@ -8381,14 +8340,14 @@
       <c r="D145" s="109"/>
       <c r="E145" s="109"/>
       <c r="F145" s="112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G145" s="112"/>
       <c r="H145" s="112">
         <v>2000</v>
       </c>
       <c r="I145" s="112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J145" s="109"/>
       <c r="K145" s="109"/>
@@ -8414,7 +8373,7 @@
       <c r="D146" s="109"/>
       <c r="E146" s="109"/>
       <c r="F146" s="112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G146" s="112"/>
       <c r="H146" s="112"/>
@@ -8443,14 +8402,14 @@
       <c r="D147" s="109"/>
       <c r="E147" s="109"/>
       <c r="F147" s="137" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G147" s="137"/>
       <c r="H147" s="138">
         <v>4520492</v>
       </c>
       <c r="I147" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J147" s="138"/>
       <c r="K147" s="109"/>
@@ -8476,14 +8435,14 @@
       <c r="D148" s="109"/>
       <c r="E148" s="109"/>
       <c r="F148" s="137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G148" s="137"/>
       <c r="H148" s="138">
         <v>5562658</v>
       </c>
       <c r="I148" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J148" s="138"/>
       <c r="K148" s="109"/>
@@ -8509,14 +8468,14 @@
       <c r="D149" s="109"/>
       <c r="E149" s="109"/>
       <c r="F149" s="109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G149" s="109"/>
       <c r="H149" s="138">
         <v>317535</v>
       </c>
       <c r="I149" s="109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J149" s="109"/>
       <c r="K149" s="109"/>
@@ -8542,7 +8501,7 @@
       <c r="D150" s="109"/>
       <c r="E150" s="109"/>
       <c r="F150" s="109" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G150" s="109"/>
       <c r="H150" s="139">
@@ -8550,7 +8509,7 @@
         <v>15.877226132552318</v>
       </c>
       <c r="I150" s="109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J150" s="109"/>
       <c r="K150" s="109"/>
@@ -8603,7 +8562,7 @@
       <c r="D152" s="109"/>
       <c r="E152" s="109"/>
       <c r="F152" s="112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G152" s="112"/>
       <c r="H152" s="112"/>
@@ -8632,14 +8591,14 @@
       <c r="D153" s="109"/>
       <c r="E153" s="109"/>
       <c r="F153" s="137" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G153" s="137"/>
       <c r="H153" s="138">
         <v>5069011</v>
       </c>
       <c r="I153" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J153" s="109"/>
       <c r="K153" s="109"/>
@@ -8665,14 +8624,14 @@
       <c r="D154" s="109"/>
       <c r="E154" s="109"/>
       <c r="F154" s="137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G154" s="137"/>
       <c r="H154" s="138">
         <v>6103024</v>
       </c>
       <c r="I154" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J154" s="109"/>
       <c r="K154" s="109"/>
@@ -8698,14 +8657,14 @@
       <c r="D155" s="109"/>
       <c r="E155" s="109"/>
       <c r="F155" s="109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G155" s="109"/>
       <c r="H155" s="138">
         <v>317535</v>
       </c>
       <c r="I155" s="109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J155" s="109"/>
       <c r="K155" s="109"/>
@@ -8731,7 +8690,7 @@
       <c r="D156" s="109"/>
       <c r="E156" s="109"/>
       <c r="F156" s="109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G156" s="109"/>
       <c r="H156" s="138">
@@ -8739,7 +8698,7 @@
         <v>314677.185</v>
       </c>
       <c r="I156" s="109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J156" s="109"/>
       <c r="K156" s="109"/>
@@ -8765,7 +8724,7 @@
       <c r="D157" s="109"/>
       <c r="E157" s="109"/>
       <c r="F157" s="109" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G157" s="109"/>
       <c r="H157" s="139">
@@ -8773,7 +8732,7 @@
         <v>17.751580878035373</v>
       </c>
       <c r="I157" s="109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J157" s="109"/>
       <c r="K157" s="109"/>
@@ -9852,7 +9811,7 @@
       <c r="D197" s="109"/>
       <c r="E197" s="109"/>
       <c r="F197" s="109" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G197" s="109"/>
       <c r="H197" s="109"/>
@@ -9908,7 +9867,7 @@
       <c r="D199" s="109"/>
       <c r="E199" s="109"/>
       <c r="F199" s="109" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G199" s="109"/>
       <c r="H199" s="109"/>
@@ -9968,7 +9927,7 @@
         <v>64.79281693354568</v>
       </c>
       <c r="I201" s="109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K201" s="109"/>
       <c r="L201" s="109"/>
@@ -9997,7 +9956,7 @@
         <v>7716.9048000000012</v>
       </c>
       <c r="I202" s="109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K202" s="109"/>
       <c r="L202" s="109"/>
@@ -10025,7 +9984,7 @@
         <v>1000000</v>
       </c>
       <c r="I203" s="109" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J203" s="109"/>
       <c r="K203" s="109"/>
@@ -10055,7 +10014,7 @@
         <v>500000</v>
       </c>
       <c r="I204" s="109" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J204" s="109"/>
       <c r="K204" s="109"/>
@@ -10189,7 +10148,7 @@
       <c r="D209" s="109"/>
       <c r="E209" s="109"/>
       <c r="F209" s="109" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G209" s="109"/>
       <c r="H209" s="109"/>
@@ -10216,18 +10175,18 @@
       <c r="B210" s="99"/>
       <c r="C210" s="109"/>
       <c r="D210" s="109" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E210" s="109"/>
       <c r="F210" s="123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G210" s="123"/>
       <c r="H210" s="109">
         <v>21</v>
       </c>
       <c r="I210" s="109" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K210" s="109"/>
       <c r="L210" s="109"/>
@@ -10279,7 +10238,7 @@
       <c r="D212" s="109"/>
       <c r="E212" s="109"/>
       <c r="F212" s="109" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G212" s="109"/>
       <c r="H212" s="144">
@@ -10287,7 +10246,7 @@
         <v>1420</v>
       </c>
       <c r="I212" s="123" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K212" s="109"/>
       <c r="M212" s="109"/>
@@ -10311,7 +10270,7 @@
       <c r="D213" s="109"/>
       <c r="E213" s="109"/>
       <c r="F213" s="109" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G213" s="109"/>
       <c r="H213" s="144">
@@ -10319,7 +10278,7 @@
         <v>7716.9048000000012</v>
       </c>
       <c r="I213" s="123" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K213" s="109"/>
       <c r="M213" s="109"/>
@@ -10343,7 +10302,7 @@
       <c r="D214" s="109"/>
       <c r="E214" s="109"/>
       <c r="F214" s="109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G214" s="109"/>
       <c r="H214" s="144">
@@ -10351,10 +10310,10 @@
         <v>5.4344400000000004</v>
       </c>
       <c r="I214" s="123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J214" s="109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K214" s="109"/>
       <c r="M214" s="109"/>
@@ -10378,7 +10337,7 @@
       <c r="D215" s="109"/>
       <c r="E215" s="109"/>
       <c r="F215" s="109" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G215" s="109"/>
       <c r="H215" s="140">
@@ -10386,7 +10345,7 @@
         <v>3.8642436019166646</v>
       </c>
       <c r="I215" s="123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K215" s="109"/>
       <c r="M215" s="109"/>
@@ -10488,7 +10447,7 @@
         <v>24</v>
       </c>
       <c r="D219" s="102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E219" s="102"/>
       <c r="F219" s="102" t="s">
@@ -10564,7 +10523,7 @@
     <row r="222" spans="2:26" customFormat="1">
       <c r="B222" s="99"/>
       <c r="C222" s="109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D222" s="109"/>
       <c r="E222" s="109"/>
@@ -10618,7 +10577,7 @@
       <c r="B224" s="99"/>
       <c r="C224" s="109"/>
       <c r="D224" s="109" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E224" s="109"/>
       <c r="F224" s="109"/>
@@ -10648,14 +10607,14 @@
       <c r="D225" s="109"/>
       <c r="E225" s="109"/>
       <c r="F225" s="109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G225" s="109"/>
       <c r="H225" s="109">
         <v>47.4</v>
       </c>
       <c r="I225" s="109" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J225" s="109"/>
       <c r="K225" s="109"/>
@@ -10681,14 +10640,14 @@
       <c r="D226" s="109"/>
       <c r="E226" s="109"/>
       <c r="F226" s="109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G226" s="109"/>
       <c r="H226" s="109">
         <v>14.2</v>
       </c>
       <c r="I226" s="109" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J226" s="109"/>
       <c r="K226" s="109"/>
@@ -11604,7 +11563,7 @@
         <v>24</v>
       </c>
       <c r="D260" s="102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E260" s="102"/>
       <c r="F260" s="102" t="s">
@@ -11655,12 +11614,12 @@
     <row r="262" spans="2:26" customFormat="1">
       <c r="B262" s="99"/>
       <c r="C262" s="109" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D262" s="109"/>
       <c r="E262" s="109"/>
       <c r="F262" s="109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G262" s="109"/>
       <c r="H262" s="109"/>
@@ -11700,11 +11659,11 @@
       <c r="B264" s="99"/>
       <c r="C264" s="109"/>
       <c r="D264" s="109" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E264" s="109"/>
       <c r="F264" s="109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G264" s="109"/>
       <c r="H264" s="109"/>
@@ -11813,7 +11772,7 @@
       <c r="D269" s="109"/>
       <c r="E269" s="109"/>
       <c r="F269" s="112" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G269" s="112"/>
       <c r="H269" s="109"/>
@@ -11837,12 +11796,12 @@
       <c r="D270" s="109"/>
       <c r="E270" s="109"/>
       <c r="F270" s="109" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G270" s="109"/>
       <c r="H270" s="109"/>
       <c r="I270" s="109" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J270" s="109"/>
       <c r="K270" s="109"/>
@@ -11863,14 +11822,14 @@
       <c r="D271" s="109"/>
       <c r="E271" s="109"/>
       <c r="F271" s="109" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G271" s="109"/>
       <c r="H271" s="109">
         <v>16.7</v>
       </c>
       <c r="I271" s="109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J271" s="109"/>
       <c r="K271" s="109"/>
@@ -11891,14 +11850,14 @@
       <c r="D272" s="109"/>
       <c r="E272" s="109"/>
       <c r="F272" s="109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G272" s="109"/>
       <c r="H272" s="109">
         <v>61.145000000000003</v>
       </c>
       <c r="I272" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J272" s="109"/>
       <c r="K272" s="109"/>
@@ -11919,14 +11878,14 @@
       <c r="D273" s="109"/>
       <c r="E273" s="109"/>
       <c r="F273" s="109" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G273" s="109"/>
       <c r="H273" s="109">
         <v>4.8920000000000003</v>
       </c>
       <c r="I273" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J273" s="109"/>
       <c r="K273" s="109"/>
@@ -11947,7 +11906,7 @@
       <c r="D274" s="109"/>
       <c r="E274" s="109"/>
       <c r="F274" s="109" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G274" s="109"/>
       <c r="H274" s="122">
@@ -11974,14 +11933,14 @@
       <c r="D275" s="109"/>
       <c r="E275" s="109"/>
       <c r="F275" s="109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G275" s="109"/>
       <c r="H275" s="109">
         <v>12.228999999999999</v>
       </c>
       <c r="I275" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J275" s="109"/>
       <c r="K275" s="109"/>
@@ -12002,14 +11961,14 @@
       <c r="D276" s="109"/>
       <c r="E276" s="109"/>
       <c r="F276" s="109" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G276" s="109"/>
       <c r="H276" s="109">
         <v>0.97799999999999998</v>
       </c>
       <c r="I276" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J276" s="109"/>
       <c r="K276" s="109"/>
@@ -12084,7 +12043,7 @@
       <c r="D280" s="109"/>
       <c r="E280" s="109"/>
       <c r="F280" s="112" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G280" s="112"/>
       <c r="H280" s="109"/>
@@ -12108,14 +12067,14 @@
       <c r="D281" s="109"/>
       <c r="E281" s="109"/>
       <c r="F281" s="109" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G281" s="109"/>
       <c r="H281" s="109">
         <v>6.6</v>
       </c>
       <c r="I281" s="109" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J281" s="109"/>
       <c r="K281" s="109"/>
@@ -12136,14 +12095,14 @@
       <c r="D282" s="109"/>
       <c r="E282" s="109"/>
       <c r="F282" s="109" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G282" s="109"/>
       <c r="H282" s="109">
         <v>16</v>
       </c>
       <c r="I282" s="109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J282" s="109"/>
       <c r="K282" s="109"/>
@@ -12164,14 +12123,14 @@
       <c r="D283" s="109"/>
       <c r="E283" s="109"/>
       <c r="F283" s="109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G283" s="109"/>
       <c r="H283" s="109">
         <v>5.4039999999999999</v>
       </c>
       <c r="I283" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J283" s="109"/>
       <c r="K283" s="109"/>
@@ -12192,14 +12151,14 @@
       <c r="D284" s="109"/>
       <c r="E284" s="109"/>
       <c r="F284" s="109" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G284" s="109"/>
       <c r="H284" s="109">
         <v>2.972</v>
       </c>
       <c r="I284" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J284" s="109"/>
       <c r="K284" s="109"/>
@@ -12220,7 +12179,7 @@
       <c r="D285" s="109"/>
       <c r="E285" s="109"/>
       <c r="F285" s="109" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G285" s="109"/>
       <c r="H285" s="122">
@@ -12247,14 +12206,14 @@
       <c r="D286" s="109"/>
       <c r="E286" s="109"/>
       <c r="F286" s="109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G286" s="109"/>
       <c r="H286" s="109">
         <v>2.7280000000000002</v>
       </c>
       <c r="I286" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J286" s="109"/>
       <c r="K286" s="109"/>
@@ -12275,14 +12234,14 @@
       <c r="D287" s="109"/>
       <c r="E287" s="109"/>
       <c r="F287" s="109" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G287" s="109"/>
       <c r="H287" s="109">
         <v>1.5009999999999999</v>
       </c>
       <c r="I287" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J287" s="109"/>
       <c r="K287" s="109"/>
@@ -12325,7 +12284,7 @@
       <c r="D289" s="109"/>
       <c r="E289" s="109"/>
       <c r="F289" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G289" s="112"/>
       <c r="H289" s="109"/>
@@ -12349,7 +12308,7 @@
       <c r="D290" s="109"/>
       <c r="E290" s="109"/>
       <c r="F290" s="109" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G290" s="109"/>
       <c r="H290" s="109">
@@ -12357,7 +12316,7 @@
         <v>16.350000000000001</v>
       </c>
       <c r="I290" s="109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J290" s="109"/>
       <c r="K290" s="109"/>
@@ -12400,7 +12359,7 @@
       <c r="D292" s="109"/>
       <c r="E292" s="109"/>
       <c r="F292" s="112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G292" s="112"/>
       <c r="H292" s="109"/>
@@ -12424,7 +12383,7 @@
       <c r="D293" s="109"/>
       <c r="E293" s="109"/>
       <c r="F293" s="109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G293" s="109"/>
       <c r="H293" s="109">
@@ -12432,7 +12391,7 @@
         <v>2.4790000000000001</v>
       </c>
       <c r="I293" s="109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J293" s="109"/>
       <c r="K293" s="109"/>
@@ -12453,7 +12412,7 @@
       <c r="D294" s="109"/>
       <c r="E294" s="109"/>
       <c r="F294" s="109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G294" s="109"/>
       <c r="H294" s="122">
@@ -12461,7 +12420,7 @@
         <v>40.348599999999998</v>
       </c>
       <c r="I294" s="109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J294" s="109"/>
       <c r="K294" s="109"/>
@@ -12658,7 +12617,7 @@
         <v>24</v>
       </c>
       <c r="D303" s="102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E303" s="102"/>
       <c r="F303" s="102" t="s">
@@ -12709,7 +12668,7 @@
     <row r="305" spans="2:21" customFormat="1">
       <c r="B305" s="99"/>
       <c r="C305" s="115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D305" s="109"/>
       <c r="E305" s="109"/>
@@ -12757,14 +12716,14 @@
       <c r="D307" s="109"/>
       <c r="E307" s="109"/>
       <c r="F307" s="109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G307" s="109"/>
       <c r="H307" s="109">
         <v>72703</v>
       </c>
       <c r="I307" s="109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J307" s="109"/>
       <c r="K307" s="109"/>
@@ -12785,7 +12744,7 @@
       <c r="D308" s="109"/>
       <c r="E308" s="109"/>
       <c r="F308" s="109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G308" s="109"/>
       <c r="H308" s="109">
@@ -12793,7 +12752,7 @@
         <v>72.703000000000003</v>
       </c>
       <c r="I308" s="109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J308" s="109"/>
       <c r="K308" s="109"/>
@@ -13474,7 +13433,7 @@
         <v>24</v>
       </c>
       <c r="D339" s="102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E339" s="102"/>
       <c r="F339" s="102" t="s">
@@ -13525,7 +13484,7 @@
     <row r="341" spans="2:25" customFormat="1">
       <c r="B341" s="99"/>
       <c r="C341" s="109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D341" s="109"/>
       <c r="E341" s="109"/>
@@ -13636,10 +13595,10 @@
       </c>
       <c r="F345" s="109"/>
       <c r="G345" s="110" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H345" s="111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I345" s="109"/>
       <c r="J345" s="109"/>
@@ -13667,10 +13626,10 @@
         <v>50</v>
       </c>
       <c r="G346" s="109" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H346" s="111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I346" s="109"/>
       <c r="J346" s="109"/>
@@ -13696,10 +13655,10 @@
       <c r="D347" s="109"/>
       <c r="F347" s="109"/>
       <c r="G347" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H347" s="111" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I347" s="109"/>
       <c r="J347" s="109"/>
@@ -13725,10 +13684,10 @@
       <c r="D348" s="109"/>
       <c r="F348" s="109"/>
       <c r="G348" s="109" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H348" s="111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I348" s="109"/>
       <c r="J348" s="109"/>
@@ -13784,7 +13743,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G350" s="109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H350" s="109"/>
       <c r="I350" s="109"/>
@@ -13810,17 +13769,17 @@
       <c r="C351" s="109"/>
       <c r="D351" s="109"/>
       <c r="E351" s="109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F351" s="109">
         <f>F350*F346</f>
         <v>27.500000000000004</v>
       </c>
       <c r="G351" s="109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H351" s="109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I351" s="109"/>
       <c r="J351" s="109"/>
@@ -14309,7 +14268,7 @@
         <v>24</v>
       </c>
       <c r="D399" s="102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E399" s="102"/>
       <c r="F399" s="102" t="s">
@@ -14360,7 +14319,7 @@
     <row r="401" spans="2:25" customFormat="1">
       <c r="B401" s="99"/>
       <c r="C401" s="114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D401" s="109"/>
       <c r="E401" s="109"/>
@@ -15285,19 +15244,19 @@
     <row r="514" spans="2:7" customFormat="1">
       <c r="B514" s="99"/>
       <c r="G514" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="515" spans="2:7" customFormat="1">
       <c r="B515" s="99"/>
       <c r="G515" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="516" spans="2:7" customFormat="1">
       <c r="B516" s="99"/>
       <c r="G516" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="517" spans="2:7" customFormat="1">
@@ -15351,41 +15310,41 @@
     <row r="533" spans="2:35" customFormat="1">
       <c r="B533" s="99"/>
     </row>
-    <row r="534" spans="2:35" s="159" customFormat="1">
-      <c r="B534" s="160"/>
-      <c r="C534" s="161"/>
-      <c r="D534" s="161"/>
-      <c r="E534" s="161"/>
-      <c r="F534" s="161"/>
-      <c r="G534" s="161"/>
-      <c r="H534" s="161"/>
-      <c r="I534" s="161"/>
-      <c r="J534" s="161"/>
-      <c r="K534" s="161"/>
-      <c r="L534" s="161"/>
-      <c r="M534" s="161"/>
-      <c r="N534" s="161"/>
-      <c r="O534" s="161"/>
-      <c r="P534" s="161"/>
-      <c r="Q534" s="161"/>
-      <c r="R534" s="161"/>
-      <c r="S534" s="161"/>
-      <c r="T534" s="161"/>
-      <c r="U534" s="161"/>
-      <c r="V534" s="161"/>
-      <c r="W534" s="161"/>
-      <c r="X534" s="161"/>
-      <c r="Y534" s="161"/>
-      <c r="Z534" s="161"/>
-      <c r="AA534" s="161"/>
-      <c r="AB534" s="161"/>
-      <c r="AC534" s="161"/>
-      <c r="AD534" s="161"/>
-      <c r="AE534" s="161"/>
-      <c r="AF534" s="161"/>
-      <c r="AG534" s="161"/>
-      <c r="AH534" s="161"/>
-      <c r="AI534" s="161"/>
+    <row r="534" spans="2:35" s="158" customFormat="1">
+      <c r="B534" s="159"/>
+      <c r="C534" s="160"/>
+      <c r="D534" s="160"/>
+      <c r="E534" s="160"/>
+      <c r="F534" s="160"/>
+      <c r="G534" s="160"/>
+      <c r="H534" s="160"/>
+      <c r="I534" s="160"/>
+      <c r="J534" s="160"/>
+      <c r="K534" s="160"/>
+      <c r="L534" s="160"/>
+      <c r="M534" s="160"/>
+      <c r="N534" s="160"/>
+      <c r="O534" s="160"/>
+      <c r="P534" s="160"/>
+      <c r="Q534" s="160"/>
+      <c r="R534" s="160"/>
+      <c r="S534" s="160"/>
+      <c r="T534" s="160"/>
+      <c r="U534" s="160"/>
+      <c r="V534" s="160"/>
+      <c r="W534" s="160"/>
+      <c r="X534" s="160"/>
+      <c r="Y534" s="160"/>
+      <c r="Z534" s="160"/>
+      <c r="AA534" s="160"/>
+      <c r="AB534" s="160"/>
+      <c r="AC534" s="160"/>
+      <c r="AD534" s="160"/>
+      <c r="AE534" s="160"/>
+      <c r="AF534" s="160"/>
+      <c r="AG534" s="160"/>
+      <c r="AH534" s="160"/>
+      <c r="AI534" s="160"/>
     </row>
   </sheetData>
   <hyperlinks>
